--- a/inputs/GMD_vulnerability_distribution/Dwelling_quintile_vul_ratio.xlsx
+++ b/inputs/GMD_vulnerability_distribution/Dwelling_quintile_vul_ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/mnguyen3_worldbank_org/Documents/Downloads/ECA/Global/Climate change and poverty/Unbreakable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/sync/git/global-unbreakable-model/inputs/GMD_vulnerability_distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9E5272-EC22-40AD-8626-226DB4D46881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81350549-1828-0941-852D-AC53E101197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{6B070355-40FC-430B-B53A-769DE9CB1D7C}"/>
+    <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{6B070355-40FC-430B-B53A-769DE9CB1D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="172">
   <si>
     <t>case</t>
   </si>
@@ -549,6 +548,9 @@
   </si>
   <si>
     <t>PICES</t>
+  </si>
+  <si>
+    <t>Case_roof_cat wall_cat</t>
   </si>
 </sst>
 </file>
@@ -908,26 +910,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1702046-7E3E-4C0C-80CF-6C0BB6F669E7}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>0.231574</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>1.3425419999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>1.5368869999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>0.9707112</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>1.513255</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>0.69160690000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>0.40948580000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>0.22235289999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1397,54 +1399,54 @@
         <v>1.0722739999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>0.16620799999999999</v>
+        <v>0.25296849999999999</v>
       </c>
       <c r="F11">
-        <v>0.3822739</v>
+        <v>0.33373730000000001</v>
       </c>
       <c r="G11">
-        <v>0.19881850000000001</v>
+        <v>0.30771789999999999</v>
       </c>
       <c r="H11">
-        <v>0.1134636</v>
+        <v>0.2683644</v>
       </c>
       <c r="I11">
-        <v>7.8227099999999994E-2</v>
+        <v>0.2324146</v>
       </c>
       <c r="J11">
-        <v>5.79625E-2</v>
+        <v>0.15424879999999999</v>
       </c>
       <c r="K11">
-        <v>2.299973</v>
+        <v>1.3192840215283723</v>
       </c>
       <c r="L11">
-        <v>1.1962029999999999</v>
+        <v>1.2164277370502652</v>
       </c>
       <c r="M11">
-        <v>0.6826603</v>
+        <v>1.0608609372313154</v>
       </c>
       <c r="N11">
-        <v>0.47065790000000002</v>
+        <v>0.91874917232777997</v>
       </c>
       <c r="O11">
-        <v>0.34873470000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.60975496949224905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1452,46 +1454,46 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>0.1106917</v>
+        <v>0.16620799999999999</v>
       </c>
       <c r="F12">
-        <v>0.23243349999999999</v>
+        <v>0.3822739</v>
       </c>
       <c r="G12">
-        <v>0.1228289</v>
+        <v>0.19881850000000001</v>
       </c>
       <c r="H12">
-        <v>8.82854E-2</v>
+        <v>0.1134636</v>
       </c>
       <c r="I12">
-        <v>6.4658900000000005E-2</v>
+        <v>7.8227099999999994E-2</v>
       </c>
       <c r="J12">
-        <v>4.5176899999999999E-2</v>
+        <v>5.79625E-2</v>
       </c>
       <c r="K12">
-        <v>2.099828</v>
+        <v>2.299973</v>
       </c>
       <c r="L12">
-        <v>1.1096490000000001</v>
+        <v>1.1962029999999999</v>
       </c>
       <c r="M12">
-        <v>0.79757929999999999</v>
+        <v>0.6826603</v>
       </c>
       <c r="N12">
-        <v>0.58413510000000002</v>
+        <v>0.47065790000000002</v>
       </c>
       <c r="O12">
-        <v>0.40813270000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.34873470000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1499,93 +1501,93 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="E13">
+        <v>0.1106917</v>
+      </c>
+      <c r="F13">
+        <v>0.23243349999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.1228289</v>
+      </c>
+      <c r="H13">
+        <v>8.82854E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.4658900000000005E-2</v>
+      </c>
+      <c r="J13">
+        <v>4.5176899999999999E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.099828</v>
+      </c>
+      <c r="L13">
+        <v>1.1096490000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.79757929999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.58413510000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.40813270000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
         <v>0.1047491</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.23309199999999999</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.1193433</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>7.5582499999999997E-2</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>5.7715200000000001E-2</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>3.7975200000000001E-2</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>2.225241</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>1.1393249999999999</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>0.72155749999999996</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>0.55098519999999995</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>0.36253489999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>2018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>3.0312499999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>5.1322199999999998E-2</v>
-      </c>
-      <c r="G14">
-        <v>2.8132999999999998E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.3798300000000001E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.3112899999999999E-2</v>
-      </c>
-      <c r="J14">
-        <v>2.51948E-2</v>
-      </c>
-      <c r="K14">
-        <v>1.693103</v>
-      </c>
-      <c r="L14">
-        <v>0.92809889999999995</v>
-      </c>
-      <c r="M14">
-        <v>0.78509859999999998</v>
-      </c>
-      <c r="N14">
-        <v>0.76248740000000004</v>
-      </c>
-      <c r="O14">
-        <v>0.83116860000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1593,469 +1595,469 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15">
+        <v>3.0312499999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.1322199999999998E-2</v>
+      </c>
+      <c r="G15">
+        <v>2.8132999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <v>2.3798300000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.3112899999999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>2.51948E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.693103</v>
+      </c>
+      <c r="L15">
+        <v>0.92809889999999995</v>
+      </c>
+      <c r="M15">
+        <v>0.78509859999999998</v>
+      </c>
+      <c r="N15">
+        <v>0.76248740000000004</v>
+      </c>
+      <c r="O15">
+        <v>0.83116860000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>2019</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
         <v>3.13096E-2</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>5.2372200000000001E-2</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>2.7117200000000001E-2</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>2.4315900000000001E-2</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>2.48192E-2</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2.79171E-2</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1.67272</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.86609860000000005</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>0.77662750000000003</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>0.79270260000000003</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>0.89164659999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2017</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.28870299999999999</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.26913930000000003</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0.28123860000000001</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>0.2909545</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.2951338</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>0.3070157</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.93223590000000001</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.97414500000000004</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>1.0077989999999999</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>1.022275</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>1.063431</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2015</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>7.7496999999999996E-2</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.1606631</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.1142354</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>6.5046499999999993E-2</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>3.4478200000000001E-2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>1.5294500000000001E-2</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>2.073153</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>1.474062</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>0.83934209999999998</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>0.44489719999999999</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>0.197356</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>2008</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0.81308510000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.9342954</v>
-      </c>
-      <c r="G18">
-        <v>0.88589709999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.82809619999999995</v>
-      </c>
-      <c r="I18">
-        <v>0.77354469999999997</v>
-      </c>
-      <c r="J18">
-        <v>0.64474580000000004</v>
-      </c>
-      <c r="K18">
-        <v>1.1490750000000001</v>
-      </c>
-      <c r="L18">
-        <v>1.08955</v>
-      </c>
-      <c r="M18">
-        <v>1.018462</v>
-      </c>
-      <c r="N18">
-        <v>0.95137000000000005</v>
-      </c>
-      <c r="O18">
-        <v>0.79296230000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
+        <v>2008</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>0.81308510000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.9342954</v>
+      </c>
+      <c r="G19">
+        <v>0.88589709999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.82809619999999995</v>
+      </c>
+      <c r="I19">
+        <v>0.77354469999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.64474580000000004</v>
+      </c>
+      <c r="K19">
+        <v>1.1490750000000001</v>
+      </c>
+      <c r="L19">
+        <v>1.08955</v>
+      </c>
+      <c r="M19">
+        <v>1.018462</v>
+      </c>
+      <c r="N19">
+        <v>0.95137000000000005</v>
+      </c>
+      <c r="O19">
+        <v>0.79296230000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
         <v>2021</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>0.70976870000000003</v>
-      </c>
-      <c r="F19">
-        <v>0.88340070000000004</v>
-      </c>
-      <c r="G19">
-        <v>0.8075698</v>
-      </c>
-      <c r="H19">
-        <v>0.7549167</v>
-      </c>
-      <c r="I19">
-        <v>0.66538450000000005</v>
-      </c>
-      <c r="J19">
-        <v>0.43732840000000001</v>
-      </c>
-      <c r="K19">
-        <v>1.244632</v>
-      </c>
-      <c r="L19">
-        <v>1.1377930000000001</v>
-      </c>
-      <c r="M19">
-        <v>1.063609</v>
-      </c>
-      <c r="N19">
-        <v>0.93746660000000004</v>
-      </c>
-      <c r="O19">
-        <v>0.61615620000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20">
+        <v>0.70976870000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.88340070000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.8075698</v>
+      </c>
+      <c r="H20">
+        <v>0.7549167</v>
+      </c>
+      <c r="I20">
+        <v>0.66538450000000005</v>
+      </c>
+      <c r="J20">
+        <v>0.43732840000000001</v>
+      </c>
+      <c r="K20">
+        <v>1.244632</v>
+      </c>
+      <c r="L20">
+        <v>1.1377930000000001</v>
+      </c>
+      <c r="M20">
+        <v>1.063609</v>
+      </c>
+      <c r="N20">
+        <v>0.93746660000000004</v>
+      </c>
+      <c r="O20">
+        <v>0.61615620000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
         <v>0.15171399999999999</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.28648240000000003</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.19744229999999999</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>0.14460999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>8.7830800000000001E-2</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>4.2121199999999998E-2</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>1.888306</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>1.3014110000000001</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>0.95317510000000005</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>0.57892350000000004</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>0.27763559999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2014</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.28980519999999999</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.57237490000000002</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>0.41427560000000002</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>0.25203110000000001</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>0.14655589999999999</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>6.3433199999999995E-2</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>1.975033</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>1.429497</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>0.86965689999999995</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>0.50570490000000001</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>0.2188822</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2012</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.7729144</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.9379961</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.87741570000000002</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.81779389999999996</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>0.72639869999999995</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.50460369999999999</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>1.2135830000000001</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>1.1352040000000001</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>1.058065</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>0.93981780000000004</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>0.65285839999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2011</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.24675540000000001</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.52932820000000003</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0.32170140000000003</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>0.17493690000000001</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>0.12396310000000001</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>8.1895700000000002E-2</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>2.1451539999999998</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>1.3037259999999999</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>0.70894860000000004</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>0.50237240000000005</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>0.33189020000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>2018</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24">
-        <v>7.2987800000000005E-2</v>
-      </c>
-      <c r="F24">
-        <v>0.19222400000000001</v>
-      </c>
-      <c r="G24">
-        <v>8.6327799999999996E-2</v>
-      </c>
-      <c r="H24">
-        <v>4.9470800000000002E-2</v>
-      </c>
-      <c r="I24">
-        <v>2.3437199999999998E-2</v>
-      </c>
-      <c r="J24">
-        <v>1.34676E-2</v>
-      </c>
-      <c r="K24">
-        <v>2.6336460000000002</v>
-      </c>
-      <c r="L24">
-        <v>1.1827700000000001</v>
-      </c>
-      <c r="M24">
-        <v>0.6777955</v>
-      </c>
-      <c r="N24">
-        <v>0.32111119999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.1845185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2063,46 +2065,46 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
       </c>
       <c r="E25">
-        <v>6.8825800000000006E-2</v>
+        <v>7.2987800000000005E-2</v>
       </c>
       <c r="F25">
-        <v>0.18712039999999999</v>
+        <v>0.19222400000000001</v>
       </c>
       <c r="G25">
-        <v>8.1918900000000003E-2</v>
+        <v>8.6327799999999996E-2</v>
       </c>
       <c r="H25">
-        <v>4.1158300000000002E-2</v>
+        <v>4.9470800000000002E-2</v>
       </c>
       <c r="I25">
-        <v>2.23929E-2</v>
+        <v>2.3437199999999998E-2</v>
       </c>
       <c r="J25">
-        <v>1.1533399999999999E-2</v>
+        <v>1.34676E-2</v>
       </c>
       <c r="K25">
-        <v>2.7187540000000001</v>
+        <v>2.6336460000000002</v>
       </c>
       <c r="L25">
-        <v>1.1902349999999999</v>
+        <v>1.1827700000000001</v>
       </c>
       <c r="M25">
-        <v>0.59800679999999995</v>
+        <v>0.6777955</v>
       </c>
       <c r="N25">
-        <v>0.32535619999999998</v>
+        <v>0.32111119999999999</v>
       </c>
       <c r="O25">
-        <v>0.16757379999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.1845185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2110,46 +2112,46 @@
         <v>47</v>
       </c>
       <c r="C26">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
       </c>
       <c r="E26">
-        <v>8.2321500000000006E-2</v>
+        <v>6.8825800000000006E-2</v>
       </c>
       <c r="F26">
-        <v>0.1944234</v>
+        <v>0.18712039999999999</v>
       </c>
       <c r="G26">
-        <v>0.11633979999999999</v>
+        <v>8.1918900000000003E-2</v>
       </c>
       <c r="H26">
-        <v>6.547E-2</v>
+        <v>4.1158300000000002E-2</v>
       </c>
       <c r="I26">
-        <v>3.2200600000000003E-2</v>
+        <v>2.23929E-2</v>
       </c>
       <c r="J26">
-        <v>1.60369E-2</v>
+        <v>1.1533399999999999E-2</v>
       </c>
       <c r="K26">
-        <v>2.3617569999999999</v>
+        <v>2.7187540000000001</v>
       </c>
       <c r="L26">
-        <v>1.4132370000000001</v>
+        <v>1.1902349999999999</v>
       </c>
       <c r="M26">
-        <v>0.79529649999999996</v>
+        <v>0.59800679999999995</v>
       </c>
       <c r="N26">
-        <v>0.39115660000000002</v>
+        <v>0.32535619999999998</v>
       </c>
       <c r="O26">
-        <v>0.19480819999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.16757379999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2157,187 +2159,187 @@
         <v>47</v>
       </c>
       <c r="C27">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27">
+        <v>8.2321500000000006E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.1944234</v>
+      </c>
+      <c r="G27">
+        <v>0.11633979999999999</v>
+      </c>
+      <c r="H27">
+        <v>6.547E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.2200600000000003E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.60369E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.3617569999999999</v>
+      </c>
+      <c r="L27">
+        <v>1.4132370000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.79529649999999996</v>
+      </c>
+      <c r="N27">
+        <v>0.39115660000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.19480819999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
         <v>6.47369E-2</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.1589081</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>8.2177200000000006E-2</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>4.4953E-2</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>2.4468899999999998E-2</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>1.31754E-2</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>2.4546760000000001</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>1.2694030000000001</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>0.69439530000000005</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>0.37797449999999999</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>0.20352229999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2013</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>0.17948900000000001</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.2761132</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>0.20195080000000001</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>0.16125680000000001</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>0.14289540000000001</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>0.1154464</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>1.5383290000000001</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>1.125143</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>0.89842160000000004</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>0.79612340000000004</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>0.64319490000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>2015</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>53</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>1.0092E-2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>1.01414E-2</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>1.3424699999999999E-2</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>6.8566E-3</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>7.3768000000000002E-3</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>1.2572399999999999E-2</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>1.0048950000000001</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>1.3302320000000001</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>0.67940940000000005</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>0.73095520000000003</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>1.245779</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30">
-        <v>2018</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30">
-        <v>1.6090500000000001E-2</v>
-      </c>
-      <c r="F30">
-        <v>3.9132E-2</v>
-      </c>
-      <c r="G30">
-        <v>1.6657600000000002E-2</v>
-      </c>
-      <c r="H30">
-        <v>1.05138E-2</v>
-      </c>
-      <c r="I30">
-        <v>6.5553E-3</v>
-      </c>
-      <c r="J30">
-        <v>7.5909999999999997E-3</v>
-      </c>
-      <c r="K30">
-        <v>2.431994</v>
-      </c>
-      <c r="L30">
-        <v>1.0352440000000001</v>
-      </c>
-      <c r="M30">
-        <v>0.65341660000000001</v>
-      </c>
-      <c r="N30">
-        <v>0.40740189999999998</v>
-      </c>
-      <c r="O30">
-        <v>0.4717691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2345,46 +2347,46 @@
         <v>54</v>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
       </c>
       <c r="E31">
-        <v>9.5698999999999992E-3</v>
+        <v>1.6090500000000001E-2</v>
       </c>
       <c r="F31">
-        <v>2.2119300000000001E-2</v>
+        <v>3.9132E-2</v>
       </c>
       <c r="G31">
-        <v>9.5327999999999993E-3</v>
+        <v>1.6657600000000002E-2</v>
       </c>
       <c r="H31">
-        <v>7.5117999999999999E-3</v>
+        <v>1.05138E-2</v>
       </c>
       <c r="I31">
-        <v>5.2554000000000003E-3</v>
+        <v>6.5553E-3</v>
       </c>
       <c r="J31">
-        <v>3.4293000000000001E-3</v>
+        <v>7.5909999999999997E-3</v>
       </c>
       <c r="K31">
-        <v>2.3113410000000001</v>
+        <v>2.431994</v>
       </c>
       <c r="L31">
-        <v>0.99612330000000004</v>
+        <v>1.0352440000000001</v>
       </c>
       <c r="M31">
-        <v>0.78494030000000004</v>
+        <v>0.65341660000000001</v>
       </c>
       <c r="N31">
-        <v>0.54915930000000002</v>
+        <v>0.40740189999999998</v>
       </c>
       <c r="O31">
-        <v>0.3583423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.4717691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2392,140 +2394,140 @@
         <v>54</v>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
       </c>
       <c r="E32">
+        <v>9.5698999999999992E-3</v>
+      </c>
+      <c r="F32">
+        <v>2.2119300000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>9.5327999999999993E-3</v>
+      </c>
+      <c r="H32">
+        <v>7.5117999999999999E-3</v>
+      </c>
+      <c r="I32">
+        <v>5.2554000000000003E-3</v>
+      </c>
+      <c r="J32">
+        <v>3.4293000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>2.3113410000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.99612330000000004</v>
+      </c>
+      <c r="M32">
+        <v>0.78494030000000004</v>
+      </c>
+      <c r="N32">
+        <v>0.54915930000000002</v>
+      </c>
+      <c r="O32">
+        <v>0.3583423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
         <v>3.7632199999999998E-2</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>7.0842000000000002E-2</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4.2142100000000002E-2</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>3.2537900000000002E-2</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>2.74989E-2</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>1.50971E-2</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>1.8824829999999999</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>1.1198410000000001</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>0.86462919999999999</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>0.73072800000000004</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>0.40117510000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>2017</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>0.40645979999999998</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0.31128220000000001</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>0.41259220000000002</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>0.42528569999999999</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>0.43650729999999999</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>0.44693889999999997</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>0.76583760000000001</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>1.0150870000000001</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>1.0463169999999999</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>1.073925</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>1.0995889999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34">
-        <v>2018</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34">
-        <v>2.03424E-2</v>
-      </c>
-      <c r="F34">
-        <v>3.7058000000000001E-2</v>
-      </c>
-      <c r="G34">
-        <v>2.4280599999999999E-2</v>
-      </c>
-      <c r="H34">
-        <v>1.94363E-2</v>
-      </c>
-      <c r="I34">
-        <v>1.4385E-2</v>
-      </c>
-      <c r="J34">
-        <v>7.8015999999999997E-3</v>
-      </c>
-      <c r="K34">
-        <v>1.821712</v>
-      </c>
-      <c r="L34">
-        <v>1.1935960000000001</v>
-      </c>
-      <c r="M34">
-        <v>0.95545760000000002</v>
-      </c>
-      <c r="N34">
-        <v>0.70714370000000004</v>
-      </c>
-      <c r="O34">
-        <v>0.38351420000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2533,46 +2535,46 @@
         <v>58</v>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
       </c>
       <c r="E35">
-        <v>2.89711E-2</v>
+        <v>2.03424E-2</v>
       </c>
       <c r="F35">
-        <v>5.1768099999999997E-2</v>
+        <v>3.7058000000000001E-2</v>
       </c>
       <c r="G35">
-        <v>3.7808899999999999E-2</v>
+        <v>2.4280599999999999E-2</v>
       </c>
       <c r="H35">
-        <v>2.7500900000000002E-2</v>
+        <v>1.94363E-2</v>
       </c>
       <c r="I35">
-        <v>1.90875E-2</v>
+        <v>1.4385E-2</v>
       </c>
       <c r="J35">
-        <v>1.02296E-2</v>
+        <v>7.8015999999999997E-3</v>
       </c>
       <c r="K35">
-        <v>1.786888</v>
+        <v>1.821712</v>
       </c>
       <c r="L35">
-        <v>1.305056</v>
+        <v>1.1935960000000001</v>
       </c>
       <c r="M35">
-        <v>0.94925280000000001</v>
+        <v>0.95545760000000002</v>
       </c>
       <c r="N35">
-        <v>0.6588463</v>
+        <v>0.70714370000000004</v>
       </c>
       <c r="O35">
-        <v>0.35309669999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.38351420000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2580,46 +2582,46 @@
         <v>58</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="s">
         <v>59</v>
       </c>
       <c r="E36">
-        <v>2.24899E-2</v>
+        <v>2.89711E-2</v>
       </c>
       <c r="F36">
-        <v>3.5697E-2</v>
+        <v>5.1768099999999997E-2</v>
       </c>
       <c r="G36">
-        <v>3.0502399999999999E-2</v>
+        <v>3.7808899999999999E-2</v>
       </c>
       <c r="H36">
-        <v>1.9624200000000001E-2</v>
+        <v>2.7500900000000002E-2</v>
       </c>
       <c r="I36">
-        <v>1.7145500000000001E-2</v>
+        <v>1.90875E-2</v>
       </c>
       <c r="J36">
-        <v>1.0079400000000001E-2</v>
+        <v>1.02296E-2</v>
       </c>
       <c r="K36">
-        <v>1.5872459999999999</v>
+        <v>1.786888</v>
       </c>
       <c r="L36">
-        <v>1.356271</v>
+        <v>1.305056</v>
       </c>
       <c r="M36">
-        <v>0.87257839999999998</v>
+        <v>0.94925280000000001</v>
       </c>
       <c r="N36">
-        <v>0.76236440000000005</v>
+        <v>0.6588463</v>
       </c>
       <c r="O36">
-        <v>0.44817449999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.35309669999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2627,93 +2629,93 @@
         <v>58</v>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="s">
         <v>59</v>
       </c>
       <c r="E37">
+        <v>2.24899E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.5697E-2</v>
+      </c>
+      <c r="G37">
+        <v>3.0502399999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.9624200000000001E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.7145500000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.0079400000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.5872459999999999</v>
+      </c>
+      <c r="L37">
+        <v>1.356271</v>
+      </c>
+      <c r="M37">
+        <v>0.87257839999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.76236440000000005</v>
+      </c>
+      <c r="O37">
+        <v>0.44817449999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38">
         <v>3.0002500000000001E-2</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>5.3526600000000001E-2</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>3.0895800000000001E-2</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>3.0019299999999999E-2</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>2.375E-2</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>1.2740700000000001E-2</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>1.784071</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>1.029774</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>1.0005599999999999</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>0.79160059999999999</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>0.42465459999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38">
-        <v>2018</v>
-      </c>
-      <c r="D38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38">
-        <v>0.1079191</v>
-      </c>
-      <c r="F38">
-        <v>0.22665370000000001</v>
-      </c>
-      <c r="G38">
-        <v>0.1268116</v>
-      </c>
-      <c r="H38">
-        <v>9.1432399999999997E-2</v>
-      </c>
-      <c r="I38">
-        <v>5.9268300000000003E-2</v>
-      </c>
-      <c r="J38">
-        <v>3.5283200000000001E-2</v>
-      </c>
-      <c r="K38">
-        <v>2.1002190000000001</v>
-      </c>
-      <c r="L38">
-        <v>1.1750620000000001</v>
-      </c>
-      <c r="M38">
-        <v>0.84723099999999996</v>
-      </c>
-      <c r="N38">
-        <v>0.54919200000000001</v>
-      </c>
-      <c r="O38">
-        <v>0.32694119999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2721,46 +2723,46 @@
         <v>60</v>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D39" t="s">
         <v>61</v>
       </c>
       <c r="E39">
-        <v>0.11832529999999999</v>
+        <v>0.1079191</v>
       </c>
       <c r="F39">
-        <v>0.2743024</v>
+        <v>0.22665370000000001</v>
       </c>
       <c r="G39">
-        <v>0.13274169999999999</v>
+        <v>0.1268116</v>
       </c>
       <c r="H39">
-        <v>0.10119889999999999</v>
+        <v>9.1432399999999997E-2</v>
       </c>
       <c r="I39">
-        <v>5.3247500000000003E-2</v>
+        <v>5.9268300000000003E-2</v>
       </c>
       <c r="J39">
-        <v>2.9851900000000001E-2</v>
+        <v>3.5283200000000001E-2</v>
       </c>
       <c r="K39">
-        <v>2.318206</v>
+        <v>2.1002190000000001</v>
       </c>
       <c r="L39">
-        <v>1.121837</v>
+        <v>1.1750620000000001</v>
       </c>
       <c r="M39">
-        <v>0.85526000000000002</v>
+        <v>0.84723099999999996</v>
       </c>
       <c r="N39">
-        <v>0.4500094</v>
+        <v>0.54919200000000001</v>
       </c>
       <c r="O39">
-        <v>0.25228669999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.32694119999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2768,46 +2770,46 @@
         <v>60</v>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D40" t="s">
         <v>61</v>
       </c>
       <c r="E40">
-        <v>0.1078088</v>
+        <v>0.11832529999999999</v>
       </c>
       <c r="F40">
-        <v>0.2531428</v>
+        <v>0.2743024</v>
       </c>
       <c r="G40">
-        <v>0.1093398</v>
+        <v>0.13274169999999999</v>
       </c>
       <c r="H40">
-        <v>8.1598799999999999E-2</v>
+        <v>0.10119889999999999</v>
       </c>
       <c r="I40">
-        <v>6.05915E-2</v>
+        <v>5.3247500000000003E-2</v>
       </c>
       <c r="J40">
-        <v>3.3823899999999997E-2</v>
+        <v>2.9851900000000001E-2</v>
       </c>
       <c r="K40">
-        <v>2.3480720000000002</v>
+        <v>2.318206</v>
       </c>
       <c r="L40">
-        <v>1.0142009999999999</v>
+        <v>1.121837</v>
       </c>
       <c r="M40">
-        <v>0.75688449999999996</v>
+        <v>0.85526000000000002</v>
       </c>
       <c r="N40">
-        <v>0.56202739999999995</v>
+        <v>0.4500094</v>
       </c>
       <c r="O40">
-        <v>0.31373970000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.25228669999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2815,281 +2817,281 @@
         <v>60</v>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D41" t="s">
         <v>61</v>
       </c>
       <c r="E41">
+        <v>0.1078088</v>
+      </c>
+      <c r="F41">
+        <v>0.2531428</v>
+      </c>
+      <c r="G41">
+        <v>0.1093398</v>
+      </c>
+      <c r="H41">
+        <v>8.1598799999999999E-2</v>
+      </c>
+      <c r="I41">
+        <v>6.05915E-2</v>
+      </c>
+      <c r="J41">
+        <v>3.3823899999999997E-2</v>
+      </c>
+      <c r="K41">
+        <v>2.3480720000000002</v>
+      </c>
+      <c r="L41">
+        <v>1.0142009999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.75688449999999996</v>
+      </c>
+      <c r="N41">
+        <v>0.56202739999999995</v>
+      </c>
+      <c r="O41">
+        <v>0.31373970000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42">
         <v>0.10033540000000001</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.1960991</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>9.8935700000000001E-2</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>8.6025000000000004E-2</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>7.2649199999999997E-2</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>4.5431399999999997E-2</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>1.9544360000000001</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>0.98604979999999998</v>
       </c>
-      <c r="M41">
+      <c r="M42">
         <v>0.85737439999999998</v>
       </c>
-      <c r="N41">
+      <c r="N42">
         <v>0.72406360000000003</v>
       </c>
-      <c r="O41">
+      <c r="O42">
         <v>0.45279540000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>62</v>
-      </c>
-      <c r="C42">
-        <v>2015</v>
-      </c>
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42">
-        <v>0.20853679999999999</v>
-      </c>
-      <c r="F42">
-        <v>0.28837259999999998</v>
-      </c>
-      <c r="G42">
-        <v>0.21076039999999999</v>
-      </c>
-      <c r="H42">
-        <v>0.1930209</v>
-      </c>
-      <c r="I42">
-        <v>0.18071580000000001</v>
-      </c>
-      <c r="J42">
-        <v>0.16986780000000001</v>
-      </c>
-      <c r="K42">
-        <v>1.382838</v>
-      </c>
-      <c r="L42">
-        <v>1.0106630000000001</v>
-      </c>
-      <c r="M42">
-        <v>0.92559630000000004</v>
-      </c>
-      <c r="N42">
-        <v>0.86658950000000001</v>
-      </c>
-      <c r="O42">
-        <v>0.81456989999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
       </c>
       <c r="C43">
         <v>2015</v>
       </c>
       <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>0.20853679999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.28837259999999998</v>
+      </c>
+      <c r="G43">
+        <v>0.21076039999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.1930209</v>
+      </c>
+      <c r="I43">
+        <v>0.18071580000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.16986780000000001</v>
+      </c>
+      <c r="K43">
+        <v>1.382838</v>
+      </c>
+      <c r="L43">
+        <v>1.0106630000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.92559630000000004</v>
+      </c>
+      <c r="N43">
+        <v>0.86658950000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.81456989999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="s">
         <v>65</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>0.37724449999999998</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.45128469999999998</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>0.39689150000000001</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>0.38666339999999999</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <v>0.3624155</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>0.28909679999999999</v>
       </c>
-      <c r="K43">
+      <c r="K44">
         <v>1.1962660000000001</v>
       </c>
-      <c r="L43">
+      <c r="L44">
         <v>1.0520799999999999</v>
       </c>
-      <c r="M43">
+      <c r="M44">
         <v>1.0249680000000001</v>
       </c>
-      <c r="N43">
+      <c r="N44">
         <v>0.96069130000000003</v>
       </c>
-      <c r="O43">
+      <c r="O44">
         <v>0.76633799999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>2013</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>0.2026715</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>0.24995319999999999</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>0.2386443</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>0.20909849999999999</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>0.17883489999999999</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>0.13675999999999999</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>1.2332920000000001</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <v>1.1774929999999999</v>
       </c>
-      <c r="M44">
+      <c r="M45">
         <v>1.031711</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>0.88238799999999995</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <v>0.67478649999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>2017</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>0.10375180000000001</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>0.20075200000000001</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>0.11966540000000001</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>8.3713300000000004E-2</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>6.2073099999999999E-2</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>5.1951600000000001E-2</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>1.934925</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>1.153381</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>0.80686119999999995</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>0.5982845</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <v>0.5007296</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46">
-        <v>2010</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46">
-        <v>0.31076730000000002</v>
-      </c>
-      <c r="F46">
-        <v>0.30825900000000001</v>
-      </c>
-      <c r="G46">
-        <v>0.30529499999999998</v>
-      </c>
-      <c r="H46">
-        <v>0.31284590000000001</v>
-      </c>
-      <c r="I46">
-        <v>0.31259130000000002</v>
-      </c>
-      <c r="J46">
-        <v>0.31485360000000001</v>
-      </c>
-      <c r="K46">
-        <v>0.99192880000000005</v>
-      </c>
-      <c r="L46">
-        <v>0.98239100000000001</v>
-      </c>
-      <c r="M46">
-        <v>1.0066889999999999</v>
-      </c>
-      <c r="N46">
-        <v>1.0058689999999999</v>
-      </c>
-      <c r="O46">
-        <v>1.0131490000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -3097,46 +3099,46 @@
         <v>70</v>
       </c>
       <c r="C47">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D47" t="s">
         <v>71</v>
       </c>
       <c r="E47">
-        <v>0.15729570000000001</v>
+        <v>0.31076730000000002</v>
       </c>
       <c r="F47">
-        <v>0.16949739999999999</v>
+        <v>0.30825900000000001</v>
       </c>
       <c r="G47">
-        <v>0.15913559999999999</v>
+        <v>0.30529499999999998</v>
       </c>
       <c r="H47">
-        <v>0.15818199999999999</v>
+        <v>0.31284590000000001</v>
       </c>
       <c r="I47">
-        <v>0.15271009999999999</v>
+        <v>0.31259130000000002</v>
       </c>
       <c r="J47">
-        <v>0.1469471</v>
+        <v>0.31485360000000001</v>
       </c>
       <c r="K47">
-        <v>1.077572</v>
+        <v>0.99192880000000005</v>
       </c>
       <c r="L47">
-        <v>1.0116970000000001</v>
+        <v>0.98239100000000001</v>
       </c>
       <c r="M47">
-        <v>1.0056350000000001</v>
+        <v>1.0066889999999999</v>
       </c>
       <c r="N47">
-        <v>0.97084720000000002</v>
+        <v>1.0058689999999999</v>
       </c>
       <c r="O47">
-        <v>0.93420919999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.0131490000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3144,46 +3146,46 @@
         <v>70</v>
       </c>
       <c r="C48">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>
       </c>
       <c r="E48">
-        <v>0.57124870000000005</v>
+        <v>0.15729570000000001</v>
       </c>
       <c r="F48">
-        <v>0.56886080000000006</v>
+        <v>0.16949739999999999</v>
       </c>
       <c r="G48">
-        <v>0.56989699999999999</v>
+        <v>0.15913559999999999</v>
       </c>
       <c r="H48">
-        <v>0.57382880000000003</v>
+        <v>0.15818199999999999</v>
       </c>
       <c r="I48">
-        <v>0.56807960000000002</v>
+        <v>0.15271009999999999</v>
       </c>
       <c r="J48">
-        <v>0.5755787</v>
+        <v>0.1469471</v>
       </c>
       <c r="K48">
-        <v>0.99581989999999998</v>
+        <v>1.077572</v>
       </c>
       <c r="L48">
-        <v>0.99763380000000002</v>
+        <v>1.0116970000000001</v>
       </c>
       <c r="M48">
-        <v>1.0045170000000001</v>
+        <v>1.0056350000000001</v>
       </c>
       <c r="N48">
-        <v>0.99445229999999996</v>
+        <v>0.97084720000000002</v>
       </c>
       <c r="O48">
-        <v>1.0075799999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.93420919999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3191,46 +3193,46 @@
         <v>70</v>
       </c>
       <c r="C49">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="s">
         <v>71</v>
       </c>
       <c r="E49">
-        <v>0.77752770000000004</v>
+        <v>0.57124870000000005</v>
       </c>
       <c r="F49">
-        <v>0.77320739999999999</v>
+        <v>0.56886080000000006</v>
       </c>
       <c r="G49">
-        <v>0.77255050000000003</v>
+        <v>0.56989699999999999</v>
       </c>
       <c r="H49">
-        <v>0.78006819999999999</v>
+        <v>0.57382880000000003</v>
       </c>
       <c r="I49">
-        <v>0.77998889999999999</v>
+        <v>0.56807960000000002</v>
       </c>
       <c r="J49">
-        <v>0.78182739999999995</v>
+        <v>0.5755787</v>
       </c>
       <c r="K49">
-        <v>0.99444359999999998</v>
+        <v>0.99581989999999998</v>
       </c>
       <c r="L49">
-        <v>0.99359869999999995</v>
+        <v>0.99763380000000002</v>
       </c>
       <c r="M49">
-        <v>1.0032669999999999</v>
+        <v>1.0045170000000001</v>
       </c>
       <c r="N49">
-        <v>1.0031650000000001</v>
+        <v>0.99445229999999996</v>
       </c>
       <c r="O49">
-        <v>1.00553</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.0075799999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3238,46 +3240,46 @@
         <v>70</v>
       </c>
       <c r="C50">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
       </c>
       <c r="E50">
-        <v>0.1965163</v>
+        <v>0.77752770000000004</v>
       </c>
       <c r="F50">
-        <v>0.19544700000000001</v>
+        <v>0.77320739999999999</v>
       </c>
       <c r="G50">
-        <v>0.1990188</v>
+        <v>0.77255050000000003</v>
       </c>
       <c r="H50">
-        <v>0.19752449999999999</v>
+        <v>0.78006819999999999</v>
       </c>
       <c r="I50">
-        <v>0.19894229999999999</v>
+        <v>0.77998889999999999</v>
       </c>
       <c r="J50">
-        <v>0.1916494</v>
+        <v>0.78182739999999995</v>
       </c>
       <c r="K50">
-        <v>0.99455870000000002</v>
+        <v>0.99444359999999998</v>
       </c>
       <c r="L50">
-        <v>1.012734</v>
+        <v>0.99359869999999995</v>
       </c>
       <c r="M50">
-        <v>1.0051300000000001</v>
+        <v>1.0032669999999999</v>
       </c>
       <c r="N50">
-        <v>1.0123450000000001</v>
+        <v>1.0031650000000001</v>
       </c>
       <c r="O50">
-        <v>0.97523420000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.00553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3285,46 +3287,46 @@
         <v>70</v>
       </c>
       <c r="C51">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
         <v>71</v>
       </c>
       <c r="E51">
-        <v>0.31983309999999998</v>
+        <v>0.1965163</v>
       </c>
       <c r="F51">
-        <v>0.32301079999999999</v>
+        <v>0.19544700000000001</v>
       </c>
       <c r="G51">
-        <v>0.32069550000000002</v>
+        <v>0.1990188</v>
       </c>
       <c r="H51">
-        <v>0.32342389999999999</v>
+        <v>0.19752449999999999</v>
       </c>
       <c r="I51">
-        <v>0.31621890000000002</v>
+        <v>0.19894229999999999</v>
       </c>
       <c r="J51">
-        <v>0.3158088</v>
+        <v>0.1916494</v>
       </c>
       <c r="K51">
-        <v>1.009935</v>
+        <v>0.99455870000000002</v>
       </c>
       <c r="L51">
-        <v>1.002696</v>
+        <v>1.012734</v>
       </c>
       <c r="M51">
-        <v>1.0112270000000001</v>
+        <v>1.0051300000000001</v>
       </c>
       <c r="N51">
-        <v>0.98869980000000002</v>
+        <v>1.0123450000000001</v>
       </c>
       <c r="O51">
-        <v>0.98741749999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.97523420000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3332,46 +3334,46 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="s">
         <v>71</v>
       </c>
       <c r="E52">
-        <v>0.41631479999999998</v>
+        <v>0.31983309999999998</v>
       </c>
       <c r="F52">
-        <v>0.42348269999999999</v>
+        <v>0.32301079999999999</v>
       </c>
       <c r="G52">
-        <v>0.41344510000000001</v>
+        <v>0.32069550000000002</v>
       </c>
       <c r="H52">
-        <v>0.41286450000000002</v>
+        <v>0.32342389999999999</v>
       </c>
       <c r="I52">
-        <v>0.41622379999999998</v>
+        <v>0.31621890000000002</v>
       </c>
       <c r="J52">
-        <v>0.41555419999999998</v>
+        <v>0.3158088</v>
       </c>
       <c r="K52">
-        <v>1.017217</v>
+        <v>1.009935</v>
       </c>
       <c r="L52">
-        <v>0.99310679999999996</v>
+        <v>1.002696</v>
       </c>
       <c r="M52">
-        <v>0.99171229999999999</v>
+        <v>1.0112270000000001</v>
       </c>
       <c r="N52">
-        <v>0.99978140000000004</v>
+        <v>0.98869980000000002</v>
       </c>
       <c r="O52">
-        <v>0.99817299999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.98741749999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3379,46 +3381,46 @@
         <v>70</v>
       </c>
       <c r="C53">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
         <v>71</v>
       </c>
       <c r="E53">
-        <v>0.10137880000000001</v>
+        <v>0.41631479999999998</v>
       </c>
       <c r="F53">
-        <v>0.104655</v>
+        <v>0.42348269999999999</v>
       </c>
       <c r="G53">
-        <v>0.1063006</v>
+        <v>0.41344510000000001</v>
       </c>
       <c r="H53">
-        <v>0.1049069</v>
+        <v>0.41286450000000002</v>
       </c>
       <c r="I53">
-        <v>9.7514000000000003E-2</v>
+        <v>0.41622379999999998</v>
       </c>
       <c r="J53">
-        <v>9.3511899999999995E-2</v>
+        <v>0.41555419999999998</v>
       </c>
       <c r="K53">
-        <v>1.032316</v>
+        <v>1.017217</v>
       </c>
       <c r="L53">
-        <v>1.048549</v>
+        <v>0.99310679999999996</v>
       </c>
       <c r="M53">
-        <v>1.0348010000000001</v>
+        <v>0.99171229999999999</v>
       </c>
       <c r="N53">
-        <v>0.96187769999999995</v>
+        <v>0.99978140000000004</v>
       </c>
       <c r="O53">
-        <v>0.92240100000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.99817299999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3426,46 +3428,46 @@
         <v>70</v>
       </c>
       <c r="C54">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
         <v>71</v>
       </c>
       <c r="E54">
-        <v>9.3143799999999999E-2</v>
+        <v>0.10137880000000001</v>
       </c>
       <c r="F54">
-        <v>9.5649700000000004E-2</v>
+        <v>0.104655</v>
       </c>
       <c r="G54">
-        <v>9.1041300000000006E-2</v>
+        <v>0.1063006</v>
       </c>
       <c r="H54">
-        <v>9.6388000000000001E-2</v>
+        <v>0.1049069</v>
       </c>
       <c r="I54">
-        <v>9.2454999999999996E-2</v>
+        <v>9.7514000000000003E-2</v>
       </c>
       <c r="J54">
-        <v>9.01835E-2</v>
+        <v>9.3511899999999995E-2</v>
       </c>
       <c r="K54">
-        <v>1.026904</v>
+        <v>1.032316</v>
       </c>
       <c r="L54">
-        <v>0.97742739999999995</v>
+        <v>1.048549</v>
       </c>
       <c r="M54">
-        <v>1.0348299999999999</v>
+        <v>1.0348010000000001</v>
       </c>
       <c r="N54">
-        <v>0.99260499999999996</v>
+        <v>0.96187769999999995</v>
       </c>
       <c r="O54">
-        <v>0.96821789999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.92240100000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3473,46 +3475,46 @@
         <v>70</v>
       </c>
       <c r="C55">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
       </c>
       <c r="E55">
-        <v>0.1023782</v>
+        <v>9.3143799999999999E-2</v>
       </c>
       <c r="F55">
-        <v>0.1077331</v>
+        <v>9.5649700000000004E-2</v>
       </c>
       <c r="G55">
-        <v>0.1064546</v>
+        <v>9.1041300000000006E-2</v>
       </c>
       <c r="H55">
-        <v>0.1000134</v>
+        <v>9.6388000000000001E-2</v>
       </c>
       <c r="I55">
-        <v>9.9550799999999995E-2</v>
+        <v>9.2454999999999996E-2</v>
       </c>
       <c r="J55">
-        <v>9.8136000000000001E-2</v>
+        <v>9.01835E-2</v>
       </c>
       <c r="K55">
-        <v>1.052305</v>
+        <v>1.026904</v>
       </c>
       <c r="L55">
-        <v>1.039817</v>
+        <v>0.97742739999999995</v>
       </c>
       <c r="M55">
-        <v>0.97690140000000003</v>
+        <v>1.0348299999999999</v>
       </c>
       <c r="N55">
-        <v>0.97238279999999999</v>
+        <v>0.99260499999999996</v>
       </c>
       <c r="O55">
-        <v>0.95856339999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.96821789999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3520,46 +3522,46 @@
         <v>70</v>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
       </c>
       <c r="E56">
-        <v>0.31543280000000001</v>
+        <v>0.1023782</v>
       </c>
       <c r="F56">
-        <v>0.32029849999999999</v>
+        <v>0.1077331</v>
       </c>
       <c r="G56">
-        <v>0.31730120000000001</v>
+        <v>0.1064546</v>
       </c>
       <c r="H56">
-        <v>0.31372879999999997</v>
+        <v>0.1000134</v>
       </c>
       <c r="I56">
-        <v>0.31203409999999998</v>
+        <v>9.9550799999999995E-2</v>
       </c>
       <c r="J56">
-        <v>0.3137895</v>
+        <v>9.8136000000000001E-2</v>
       </c>
       <c r="K56">
-        <v>1.015425</v>
+        <v>1.052305</v>
       </c>
       <c r="L56">
-        <v>1.0059229999999999</v>
+        <v>1.039817</v>
       </c>
       <c r="M56">
-        <v>0.99459799999999998</v>
+        <v>0.97690140000000003</v>
       </c>
       <c r="N56">
-        <v>0.98922529999999997</v>
+        <v>0.97238279999999999</v>
       </c>
       <c r="O56">
-        <v>0.99479030000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.95856339999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3567,187 +3569,187 @@
         <v>70</v>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
       </c>
       <c r="E57">
+        <v>0.31543280000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.32029849999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.31730120000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.31372879999999997</v>
+      </c>
+      <c r="I57">
+        <v>0.31203409999999998</v>
+      </c>
+      <c r="J57">
+        <v>0.3137895</v>
+      </c>
+      <c r="K57">
+        <v>1.015425</v>
+      </c>
+      <c r="L57">
+        <v>1.0059229999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.99459799999999998</v>
+      </c>
+      <c r="N57">
+        <v>0.98922529999999997</v>
+      </c>
+      <c r="O57">
+        <v>0.99479030000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58">
+        <v>2021</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58">
         <v>0.29832439999999999</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>0.28860209999999997</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>0.29596749999999999</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>0.30284430000000001</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>0.29672349999999997</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>0.3074886</v>
       </c>
-      <c r="K57">
+      <c r="K58">
         <v>0.96741029999999995</v>
       </c>
-      <c r="L57">
+      <c r="L58">
         <v>0.99209950000000002</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>1.0151509999999999</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>0.99463369999999995</v>
       </c>
-      <c r="O57">
+      <c r="O58">
         <v>1.0307189999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
         <v>72</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>2016</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>73</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>0.15495329999999999</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>0.33310909999999999</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>0.18056620000000001</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>0.11058270000000001</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <v>8.3455799999999997E-2</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <v>6.6980200000000004E-2</v>
       </c>
-      <c r="K58">
+      <c r="K59">
         <v>2.1497389999999998</v>
       </c>
-      <c r="L58">
+      <c r="L59">
         <v>1.1652940000000001</v>
       </c>
-      <c r="M58">
+      <c r="M59">
         <v>0.71365179999999995</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <v>0.53858680000000003</v>
       </c>
-      <c r="O58">
+      <c r="O59">
         <v>0.43226049999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>2018</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>0.26606740000000001</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>0.4456464</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>0.3393467</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>0.25881789999999999</v>
       </c>
-      <c r="I59">
+      <c r="I60">
         <v>0.19230259999999999</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <v>9.3970799999999993E-2</v>
       </c>
-      <c r="K59">
+      <c r="K60">
         <v>1.674938</v>
       </c>
-      <c r="L59">
+      <c r="L60">
         <v>1.2754160000000001</v>
       </c>
-      <c r="M59">
+      <c r="M60">
         <v>0.97275319999999998</v>
       </c>
-      <c r="N59">
+      <c r="N60">
         <v>0.72275900000000004</v>
       </c>
-      <c r="O59">
+      <c r="O60">
         <v>0.3531842</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60">
-        <v>2015</v>
-      </c>
-      <c r="D60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60">
-        <v>0.1934678</v>
-      </c>
-      <c r="F60">
-        <v>0.37808449999999999</v>
-      </c>
-      <c r="G60">
-        <v>0.25747759999999997</v>
-      </c>
-      <c r="H60">
-        <v>0.18358360000000001</v>
-      </c>
-      <c r="I60">
-        <v>0.1063007</v>
-      </c>
-      <c r="J60">
-        <v>4.1736299999999997E-2</v>
-      </c>
-      <c r="K60">
-        <v>1.95425</v>
-      </c>
-      <c r="L60">
-        <v>1.3308549999999999</v>
-      </c>
-      <c r="M60">
-        <v>0.94891040000000004</v>
-      </c>
-      <c r="N60">
-        <v>0.54944899999999997</v>
-      </c>
-      <c r="O60">
-        <v>0.21572740000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3755,187 +3757,187 @@
         <v>75</v>
       </c>
       <c r="C61">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
       </c>
       <c r="E61">
+        <v>0.1934678</v>
+      </c>
+      <c r="F61">
+        <v>0.37808449999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.25747759999999997</v>
+      </c>
+      <c r="H61">
+        <v>0.18358360000000001</v>
+      </c>
+      <c r="I61">
+        <v>0.1063007</v>
+      </c>
+      <c r="J61">
+        <v>4.1736299999999997E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.95425</v>
+      </c>
+      <c r="L61">
+        <v>1.3308549999999999</v>
+      </c>
+      <c r="M61">
+        <v>0.94891040000000004</v>
+      </c>
+      <c r="N61">
+        <v>0.54944899999999997</v>
+      </c>
+      <c r="O61">
+        <v>0.21572740000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>2020</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62">
         <v>0.15150140000000001</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>0.3098611</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>0.19611319999999999</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>0.13511799999999999</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>8.6724599999999999E-2</v>
       </c>
-      <c r="J61">
+      <c r="J62">
         <v>2.9309399999999999E-2</v>
       </c>
-      <c r="K61">
+      <c r="K62">
         <v>2.0452689999999998</v>
       </c>
-      <c r="L61">
+      <c r="L62">
         <v>1.294465</v>
       </c>
-      <c r="M61">
+      <c r="M62">
         <v>0.89185970000000003</v>
       </c>
-      <c r="N61">
+      <c r="N62">
         <v>0.57243429999999995</v>
       </c>
-      <c r="O61">
+      <c r="O62">
         <v>0.19345960000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>2018</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>24</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>0.39141039999999999</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>0.52085090000000001</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>0.45785330000000002</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>0.41547319999999999</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>0.3369008</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>0.2258048</v>
       </c>
-      <c r="K62">
+      <c r="K63">
         <v>1.330703</v>
       </c>
-      <c r="L62">
+      <c r="L63">
         <v>1.1697519999999999</v>
       </c>
-      <c r="M62">
+      <c r="M63">
         <v>1.061477</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <v>0.86073540000000004</v>
       </c>
-      <c r="O62">
+      <c r="O63">
         <v>0.57690039999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
         <v>78</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>2014</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>79</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>0.2109241</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>0.3751448</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>0.279833</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>0.21913460000000001</v>
       </c>
-      <c r="I63">
+      <c r="I64">
         <v>0.13023399999999999</v>
       </c>
-      <c r="J63">
+      <c r="J64">
         <v>5.0174799999999999E-2</v>
       </c>
-      <c r="K63">
+      <c r="K64">
         <v>1.7785770000000001</v>
       </c>
-      <c r="L63">
+      <c r="L64">
         <v>1.3267</v>
       </c>
-      <c r="M63">
+      <c r="M64">
         <v>1.038926</v>
       </c>
-      <c r="N63">
+      <c r="N64">
         <v>0.61744489999999996</v>
       </c>
-      <c r="O63">
+      <c r="O64">
         <v>0.2378808</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64">
-        <v>2018</v>
-      </c>
-      <c r="D64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64">
-        <v>0.56549380000000005</v>
-      </c>
-      <c r="F64">
-        <v>0.71122569999999996</v>
-      </c>
-      <c r="G64">
-        <v>0.6150658</v>
-      </c>
-      <c r="H64">
-        <v>0.55488499999999996</v>
-      </c>
-      <c r="I64">
-        <v>0.50246979999999997</v>
-      </c>
-      <c r="J64">
-        <v>0.44521050000000001</v>
-      </c>
-      <c r="K64">
-        <v>1.2577069999999999</v>
-      </c>
-      <c r="L64">
-        <v>1.087661</v>
-      </c>
-      <c r="M64">
-        <v>0.9812398</v>
-      </c>
-      <c r="N64">
-        <v>0.88855039999999996</v>
-      </c>
-      <c r="O64">
-        <v>0.78729499999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3943,93 +3945,93 @@
         <v>80</v>
       </c>
       <c r="C65">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
       </c>
       <c r="E65">
+        <v>0.56549380000000005</v>
+      </c>
+      <c r="F65">
+        <v>0.71122569999999996</v>
+      </c>
+      <c r="G65">
+        <v>0.6150658</v>
+      </c>
+      <c r="H65">
+        <v>0.55488499999999996</v>
+      </c>
+      <c r="I65">
+        <v>0.50246979999999997</v>
+      </c>
+      <c r="J65">
+        <v>0.44521050000000001</v>
+      </c>
+      <c r="K65">
+        <v>1.2577069999999999</v>
+      </c>
+      <c r="L65">
+        <v>1.087661</v>
+      </c>
+      <c r="M65">
+        <v>0.9812398</v>
+      </c>
+      <c r="N65">
+        <v>0.88855039999999996</v>
+      </c>
+      <c r="O65">
+        <v>0.78729499999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>2019</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
         <v>0.40700979999999998</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>0.60328139999999997</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>0.44916339999999999</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>0.39437369999999999</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>0.32625680000000001</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>0.26261820000000002</v>
       </c>
-      <c r="K65">
+      <c r="K66">
         <v>1.4822280000000001</v>
       </c>
-      <c r="L65">
+      <c r="L66">
         <v>1.103569</v>
       </c>
-      <c r="M65">
+      <c r="M66">
         <v>0.96895370000000003</v>
       </c>
-      <c r="N65">
+      <c r="N66">
         <v>0.80159449999999999</v>
       </c>
-      <c r="O65">
+      <c r="O66">
         <v>0.64523799999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66">
-        <v>2017</v>
-      </c>
-      <c r="D66" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66">
-        <v>8.5562700000000005E-2</v>
-      </c>
-      <c r="F66">
-        <v>0.14288989999999999</v>
-      </c>
-      <c r="G66">
-        <v>0.1028004</v>
-      </c>
-      <c r="H66">
-        <v>8.3032999999999996E-2</v>
-      </c>
-      <c r="I66">
-        <v>6.3927600000000001E-2</v>
-      </c>
-      <c r="J66">
-        <v>3.5158399999999999E-2</v>
-      </c>
-      <c r="K66">
-        <v>1.670002</v>
-      </c>
-      <c r="L66">
-        <v>1.2014629999999999</v>
-      </c>
-      <c r="M66">
-        <v>0.97043460000000004</v>
-      </c>
-      <c r="N66">
-        <v>0.74714329999999995</v>
-      </c>
-      <c r="O66">
-        <v>0.410908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -4037,93 +4039,93 @@
         <v>82</v>
       </c>
       <c r="C67">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
+        <v>8.5562700000000005E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.14288989999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.1028004</v>
+      </c>
+      <c r="H67">
+        <v>8.3032999999999996E-2</v>
+      </c>
+      <c r="I67">
+        <v>6.3927600000000001E-2</v>
+      </c>
+      <c r="J67">
+        <v>3.5158399999999999E-2</v>
+      </c>
+      <c r="K67">
+        <v>1.670002</v>
+      </c>
+      <c r="L67">
+        <v>1.2014629999999999</v>
+      </c>
+      <c r="M67">
+        <v>0.97043460000000004</v>
+      </c>
+      <c r="N67">
+        <v>0.74714329999999995</v>
+      </c>
+      <c r="O67">
+        <v>0.410908</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>2018</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68">
         <v>8.6990200000000004E-2</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>0.1481132</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>0.10829</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>8.3193900000000001E-2</v>
       </c>
-      <c r="I67">
+      <c r="I68">
         <v>6.2424800000000003E-2</v>
       </c>
-      <c r="J67">
+      <c r="J68">
         <v>3.2928699999999998E-2</v>
       </c>
-      <c r="K67">
+      <c r="K68">
         <v>1.702642</v>
       </c>
-      <c r="L67">
+      <c r="L68">
         <v>1.244853</v>
       </c>
-      <c r="M67">
+      <c r="M68">
         <v>0.95635939999999997</v>
       </c>
-      <c r="N67">
+      <c r="N68">
         <v>0.71760729999999995</v>
       </c>
-      <c r="O67">
+      <c r="O68">
         <v>0.37853350000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68">
-        <v>2017</v>
-      </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68">
-        <v>0.1225916</v>
-      </c>
-      <c r="F68">
-        <v>0.16171849999999999</v>
-      </c>
-      <c r="G68">
-        <v>0.1130903</v>
-      </c>
-      <c r="H68">
-        <v>0.10212450000000001</v>
-      </c>
-      <c r="I68">
-        <v>0.1090472</v>
-      </c>
-      <c r="J68">
-        <v>0.12697929999999999</v>
-      </c>
-      <c r="K68">
-        <v>1.3191649999999999</v>
-      </c>
-      <c r="L68">
-        <v>0.92249630000000005</v>
-      </c>
-      <c r="M68">
-        <v>0.83304639999999996</v>
-      </c>
-      <c r="N68">
-        <v>0.88951610000000003</v>
-      </c>
-      <c r="O68">
-        <v>1.0357909999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4131,46 +4133,46 @@
         <v>84</v>
       </c>
       <c r="C69">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>0.11502709999999999</v>
+        <v>0.1225916</v>
       </c>
       <c r="F69">
-        <v>0.13993920000000001</v>
+        <v>0.16171849999999999</v>
       </c>
       <c r="G69">
-        <v>0.1068214</v>
+        <v>0.1130903</v>
       </c>
       <c r="H69">
-        <v>0.1028833</v>
+        <v>0.10212450000000001</v>
       </c>
       <c r="I69">
-        <v>0.1015464</v>
+        <v>0.1090472</v>
       </c>
       <c r="J69">
-        <v>0.12394860000000001</v>
+        <v>0.12697929999999999</v>
       </c>
       <c r="K69">
-        <v>1.2165760000000001</v>
+        <v>1.3191649999999999</v>
       </c>
       <c r="L69">
-        <v>0.92866289999999996</v>
+        <v>0.92249630000000005</v>
       </c>
       <c r="M69">
-        <v>0.89442659999999996</v>
+        <v>0.83304639999999996</v>
       </c>
       <c r="N69">
-        <v>0.88280420000000004</v>
+        <v>0.88951610000000003</v>
       </c>
       <c r="O69">
-        <v>1.0775600000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.0357909999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -4178,234 +4180,234 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D70" t="s">
         <v>85</v>
       </c>
       <c r="E70">
+        <v>0.11502709999999999</v>
+      </c>
+      <c r="F70">
+        <v>0.13993920000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.1068214</v>
+      </c>
+      <c r="H70">
+        <v>0.1028833</v>
+      </c>
+      <c r="I70">
+        <v>0.1015464</v>
+      </c>
+      <c r="J70">
+        <v>0.12394860000000001</v>
+      </c>
+      <c r="K70">
+        <v>1.2165760000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.92866289999999996</v>
+      </c>
+      <c r="M70">
+        <v>0.89442659999999996</v>
+      </c>
+      <c r="N70">
+        <v>0.88280420000000004</v>
+      </c>
+      <c r="O70">
+        <v>1.0775600000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>2019</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71">
         <v>0.11858929999999999</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>0.14784710000000001</v>
       </c>
-      <c r="G70">
+      <c r="G71">
         <v>0.10944130000000001</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <v>9.9404599999999996E-2</v>
       </c>
-      <c r="I70">
+      <c r="I71">
         <v>0.107657</v>
       </c>
-      <c r="J70">
+      <c r="J71">
         <v>0.12859860000000001</v>
       </c>
-      <c r="K70">
+      <c r="K71">
         <v>1.246715</v>
       </c>
-      <c r="L70">
+      <c r="L71">
         <v>0.92285980000000001</v>
       </c>
-      <c r="M70">
+      <c r="M71">
         <v>0.83822580000000002</v>
       </c>
-      <c r="N70">
+      <c r="N71">
         <v>0.9078138</v>
       </c>
-      <c r="O70">
+      <c r="O71">
         <v>1.084403</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
         <v>86</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>2012</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>87</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>0.1276254</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>0.224106</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>0.13537740000000001</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>0.1093629</v>
       </c>
-      <c r="I71">
+      <c r="I72">
         <v>9.2285500000000006E-2</v>
       </c>
-      <c r="J71">
+      <c r="J72">
         <v>7.7053899999999995E-2</v>
       </c>
-      <c r="K71">
+      <c r="K72">
         <v>1.7559670000000001</v>
       </c>
-      <c r="L71">
+      <c r="L72">
         <v>1.06074</v>
       </c>
-      <c r="M71">
+      <c r="M72">
         <v>0.85690540000000004</v>
       </c>
-      <c r="N71">
+      <c r="N72">
         <v>0.72309659999999998</v>
       </c>
-      <c r="O71">
+      <c r="O72">
         <v>0.60375049999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>66</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>88</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>2010</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>85</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>2.8874999999999999E-3</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>3.5512E-3</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>3.8035999999999999E-3</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>4.7219000000000002E-3</v>
       </c>
-      <c r="I72">
+      <c r="I73">
         <v>1.8476E-3</v>
       </c>
-      <c r="J72">
+      <c r="J73">
         <v>5.1210000000000003E-4</v>
       </c>
-      <c r="K72">
+      <c r="K73">
         <v>1.2298530000000001</v>
       </c>
-      <c r="L72">
+      <c r="L73">
         <v>1.317264</v>
       </c>
-      <c r="M72">
+      <c r="M73">
         <v>1.6352899999999999</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <v>0.63986149999999997</v>
       </c>
-      <c r="O72">
+      <c r="O73">
         <v>0.1773507</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
         <v>89</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>2015</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>90</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>0.49237819999999999</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>0.71300359999999996</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>0.60669709999999999</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>0.50205250000000001</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>0.3852738</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>0.2557449</v>
       </c>
-      <c r="K73">
+      <c r="K74">
         <v>1.448081</v>
       </c>
-      <c r="L73">
+      <c r="L74">
         <v>1.2321770000000001</v>
       </c>
-      <c r="M73">
+      <c r="M74">
         <v>1.0196480000000001</v>
       </c>
-      <c r="N73">
+      <c r="N74">
         <v>0.78247540000000004</v>
       </c>
-      <c r="O73">
+      <c r="O74">
         <v>0.51940750000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74">
-        <v>2005</v>
-      </c>
-      <c r="D74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74">
-        <v>0.87617630000000002</v>
-      </c>
-      <c r="F74">
-        <v>0.87608520000000001</v>
-      </c>
-      <c r="G74">
-        <v>0.88992210000000005</v>
-      </c>
-      <c r="H74">
-        <v>0.88485279999999999</v>
-      </c>
-      <c r="I74">
-        <v>0.87752189999999997</v>
-      </c>
-      <c r="J74">
-        <v>0.85253259999999997</v>
-      </c>
-      <c r="K74">
-        <v>0.99989600000000001</v>
-      </c>
-      <c r="L74">
-        <v>1.0156879999999999</v>
-      </c>
-      <c r="M74">
-        <v>1.009903</v>
-      </c>
-      <c r="N74">
-        <v>1.001536</v>
-      </c>
-      <c r="O74">
-        <v>0.97301499999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -4413,46 +4415,46 @@
         <v>91</v>
       </c>
       <c r="C75">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="D75" t="s">
         <v>92</v>
       </c>
       <c r="E75">
-        <v>0.94546739999999996</v>
+        <v>0.87617630000000002</v>
       </c>
       <c r="F75">
-        <v>0.95279020000000003</v>
+        <v>0.87608520000000001</v>
       </c>
       <c r="G75">
-        <v>0.95117090000000004</v>
+        <v>0.88992210000000005</v>
       </c>
       <c r="H75">
-        <v>0.94790700000000006</v>
+        <v>0.88485279999999999</v>
       </c>
       <c r="I75">
-        <v>0.94210439999999995</v>
+        <v>0.87752189999999997</v>
       </c>
       <c r="J75">
-        <v>0.93338679999999996</v>
+        <v>0.85253259999999997</v>
       </c>
       <c r="K75">
-        <v>1.0077449999999999</v>
+        <v>0.99989600000000001</v>
       </c>
       <c r="L75">
-        <v>1.006032</v>
+        <v>1.0156879999999999</v>
       </c>
       <c r="M75">
-        <v>1.00258</v>
+        <v>1.009903</v>
       </c>
       <c r="N75">
-        <v>0.99644299999999997</v>
+        <v>1.001536</v>
       </c>
       <c r="O75">
-        <v>0.98722259999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.97301499999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -4460,46 +4462,46 @@
         <v>91</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
       </c>
       <c r="E76">
-        <v>0.94698059999999995</v>
+        <v>0.94546739999999996</v>
       </c>
       <c r="F76">
-        <v>0.95265480000000002</v>
+        <v>0.95279020000000003</v>
       </c>
       <c r="G76">
-        <v>0.95280739999999997</v>
+        <v>0.95117090000000004</v>
       </c>
       <c r="H76">
-        <v>0.95122600000000002</v>
+        <v>0.94790700000000006</v>
       </c>
       <c r="I76">
-        <v>0.94245749999999995</v>
+        <v>0.94210439999999995</v>
       </c>
       <c r="J76">
-        <v>0.93579509999999999</v>
+        <v>0.93338679999999996</v>
       </c>
       <c r="K76">
-        <v>1.005992</v>
+        <v>1.0077449999999999</v>
       </c>
       <c r="L76">
-        <v>1.0061530000000001</v>
+        <v>1.006032</v>
       </c>
       <c r="M76">
-        <v>1.004483</v>
+        <v>1.00258</v>
       </c>
       <c r="N76">
-        <v>0.99522359999999999</v>
+        <v>0.99644299999999997</v>
       </c>
       <c r="O76">
-        <v>0.98818830000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.98722259999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -4507,145 +4509,145 @@
         <v>91</v>
       </c>
       <c r="C77">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="s">
         <v>92</v>
       </c>
       <c r="E77">
+        <v>0.94698059999999995</v>
+      </c>
+      <c r="F77">
+        <v>0.95265480000000002</v>
+      </c>
+      <c r="G77">
+        <v>0.95280739999999997</v>
+      </c>
+      <c r="H77">
+        <v>0.95122600000000002</v>
+      </c>
+      <c r="I77">
+        <v>0.94245749999999995</v>
+      </c>
+      <c r="J77">
+        <v>0.93579509999999999</v>
+      </c>
+      <c r="K77">
+        <v>1.005992</v>
+      </c>
+      <c r="L77">
+        <v>1.0061530000000001</v>
+      </c>
+      <c r="M77">
+        <v>1.004483</v>
+      </c>
+      <c r="N77">
+        <v>0.99522359999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.98818830000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78">
+        <v>2020</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
         <v>0.75506740000000006</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>0.82996449999999999</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>0.80197439999999998</v>
       </c>
-      <c r="H77">
+      <c r="H78">
         <v>0.7590346</v>
       </c>
-      <c r="I77">
+      <c r="I78">
         <v>0.73424719999999999</v>
       </c>
-      <c r="J77">
+      <c r="J78">
         <v>0.64987709999999999</v>
       </c>
-      <c r="K77">
+      <c r="K78">
         <v>1.0991930000000001</v>
       </c>
-      <c r="L77">
+      <c r="L78">
         <v>1.0621229999999999</v>
       </c>
-      <c r="M77">
+      <c r="M78">
         <v>1.0052540000000001</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <v>0.97242609999999996</v>
       </c>
-      <c r="O77">
+      <c r="O78">
         <v>0.86068750000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>93</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>2011</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>94</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>1.1521999999999999E-3</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>2.2342999999999998E-3</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <v>7.4200000000000004E-4</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H79" s="1">
         <v>2.3099999999999999E-17</v>
       </c>
-      <c r="I78">
+      <c r="I79">
         <v>1.6343E-3</v>
       </c>
-      <c r="J78">
+      <c r="J79">
         <v>1.1479999999999999E-3</v>
       </c>
-      <c r="K78">
+      <c r="K79">
         <v>1.93916</v>
       </c>
-      <c r="L78">
+      <c r="L79">
         <v>0.64398540000000004</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M79" s="1">
         <v>2E-14</v>
       </c>
-      <c r="N78">
+      <c r="N79">
         <v>1.418417</v>
       </c>
-      <c r="O78">
+      <c r="O79">
         <v>0.99635479999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
         <v>95</v>
-      </c>
-      <c r="C79">
-        <v>2016</v>
-      </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79">
-        <v>0.35732920000000001</v>
-      </c>
-      <c r="F79">
-        <v>0.57093830000000001</v>
-      </c>
-      <c r="G79">
-        <v>0.46265279999999998</v>
-      </c>
-      <c r="H79">
-        <v>0.36040549999999999</v>
-      </c>
-      <c r="I79">
-        <v>0.26712550000000002</v>
-      </c>
-      <c r="J79">
-        <v>0.1251263</v>
-      </c>
-      <c r="K79">
-        <v>1.5977939999999999</v>
-      </c>
-      <c r="L79">
-        <v>1.2947519999999999</v>
-      </c>
-      <c r="M79">
-        <v>1.0086090000000001</v>
-      </c>
-      <c r="N79">
-        <v>0.74756129999999998</v>
-      </c>
-      <c r="O79">
-        <v>0.35017090000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s">
-        <v>96</v>
       </c>
       <c r="C80">
         <v>2016</v>
@@ -4654,181 +4656,181 @@
         <v>28</v>
       </c>
       <c r="E80">
+        <v>0.35732920000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.57093830000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.46265279999999998</v>
+      </c>
+      <c r="H80">
+        <v>0.36040549999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.26712550000000002</v>
+      </c>
+      <c r="J80">
+        <v>0.1251263</v>
+      </c>
+      <c r="K80">
+        <v>1.5977939999999999</v>
+      </c>
+      <c r="L80">
+        <v>1.2947519999999999</v>
+      </c>
+      <c r="M80">
+        <v>1.0086090000000001</v>
+      </c>
+      <c r="N80">
+        <v>0.74756129999999998</v>
+      </c>
+      <c r="O80">
+        <v>0.35017090000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>2016</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81">
         <v>4.6408999999999999E-2</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>5.8192000000000001E-2</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <v>4.7949499999999999E-2</v>
       </c>
-      <c r="H80">
+      <c r="H81">
         <v>4.3608500000000001E-2</v>
       </c>
-      <c r="I80">
+      <c r="I81">
         <v>4.1994400000000001E-2</v>
       </c>
-      <c r="J80">
+      <c r="J81">
         <v>4.0293000000000002E-2</v>
       </c>
-      <c r="K80">
+      <c r="K81">
         <v>1.253895</v>
       </c>
-      <c r="L80">
+      <c r="L81">
         <v>1.0331939999999999</v>
       </c>
-      <c r="M80">
+      <c r="M81">
         <v>0.93965609999999999</v>
       </c>
-      <c r="N80">
+      <c r="N81">
         <v>0.90487620000000002</v>
       </c>
-      <c r="O80">
+      <c r="O81">
         <v>0.86821530000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
         <v>97</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>2017</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>98</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>0.41844300000000001</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>0.59482159999999995</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>0.5197176</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>0.4094409</v>
       </c>
-      <c r="I81">
+      <c r="I82">
         <v>0.33494930000000001</v>
       </c>
-      <c r="J81">
+      <c r="J82">
         <v>0.23269100000000001</v>
       </c>
-      <c r="K81">
+      <c r="K82">
         <v>1.4215120000000001</v>
       </c>
-      <c r="L81">
+      <c r="L82">
         <v>1.242027</v>
       </c>
-      <c r="M81">
+      <c r="M82">
         <v>0.97848670000000004</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <v>0.80046580000000001</v>
       </c>
-      <c r="O81">
+      <c r="O82">
         <v>0.55608769999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>51</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>99</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>2013</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>100</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>0.17970810000000001</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>0.37314940000000002</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>0.2427155</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>0.1488284</v>
       </c>
-      <c r="I82">
+      <c r="I83">
         <v>9.2454300000000003E-2</v>
       </c>
-      <c r="J82">
+      <c r="J83">
         <v>4.1352E-2</v>
       </c>
-      <c r="K82">
+      <c r="K83">
         <v>2.0764200000000002</v>
       </c>
-      <c r="L82">
+      <c r="L83">
         <v>1.3506100000000001</v>
       </c>
-      <c r="M82">
+      <c r="M83">
         <v>0.82816749999999995</v>
       </c>
-      <c r="N82">
+      <c r="N83">
         <v>0.51446930000000002</v>
       </c>
-      <c r="O82">
+      <c r="O83">
         <v>0.23010649999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83">
-        <v>2010</v>
-      </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83">
-        <v>0.45540120000000001</v>
-      </c>
-      <c r="F83">
-        <v>0.6846991</v>
-      </c>
-      <c r="G83">
-        <v>0.56097350000000001</v>
-      </c>
-      <c r="H83">
-        <v>0.45982800000000001</v>
-      </c>
-      <c r="I83">
-        <v>0.34329009999999999</v>
-      </c>
-      <c r="J83">
-        <v>0.2279727</v>
-      </c>
-      <c r="K83">
-        <v>1.5035069999999999</v>
-      </c>
-      <c r="L83">
-        <v>1.2318229999999999</v>
-      </c>
-      <c r="M83">
-        <v>1.0097210000000001</v>
-      </c>
-      <c r="N83">
-        <v>0.75381900000000002</v>
-      </c>
-      <c r="O83">
-        <v>0.50059750000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -4836,140 +4838,140 @@
         <v>101</v>
       </c>
       <c r="C84">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D84" t="s">
         <v>94</v>
       </c>
       <c r="E84">
+        <v>0.45540120000000001</v>
+      </c>
+      <c r="F84">
+        <v>0.6846991</v>
+      </c>
+      <c r="G84">
+        <v>0.56097350000000001</v>
+      </c>
+      <c r="H84">
+        <v>0.45982800000000001</v>
+      </c>
+      <c r="I84">
+        <v>0.34329009999999999</v>
+      </c>
+      <c r="J84">
+        <v>0.2279727</v>
+      </c>
+      <c r="K84">
+        <v>1.5035069999999999</v>
+      </c>
+      <c r="L84">
+        <v>1.2318229999999999</v>
+      </c>
+      <c r="M84">
+        <v>1.0097210000000001</v>
+      </c>
+      <c r="N84">
+        <v>0.75381900000000002</v>
+      </c>
+      <c r="O84">
+        <v>0.50059750000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>2017</v>
+      </c>
+      <c r="D85" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85">
         <v>0.35720560000000001</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>0.54080810000000001</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <v>0.46815839999999997</v>
       </c>
-      <c r="H84">
+      <c r="H85">
         <v>0.34543400000000002</v>
       </c>
-      <c r="I84">
+      <c r="I85">
         <v>0.26786910000000003</v>
       </c>
-      <c r="J84">
+      <c r="J85">
         <v>0.1631621</v>
       </c>
-      <c r="K84">
+      <c r="K85">
         <v>1.513997</v>
       </c>
-      <c r="L84">
+      <c r="L85">
         <v>1.310613</v>
       </c>
-      <c r="M84">
+      <c r="M85">
         <v>0.96704540000000005</v>
       </c>
-      <c r="N84">
+      <c r="N85">
         <v>0.74990179999999995</v>
       </c>
-      <c r="O84">
+      <c r="O85">
         <v>0.4567736</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
         <v>102</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>2012</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>103</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>0.56286939999999996</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>0.71149030000000002</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>0.70776620000000001</v>
       </c>
-      <c r="H85">
+      <c r="H86">
         <v>0.64546720000000002</v>
       </c>
-      <c r="I85">
+      <c r="I86">
         <v>0.50813379999999997</v>
       </c>
-      <c r="J85">
+      <c r="J86">
         <v>0.2408584</v>
       </c>
-      <c r="K85">
+      <c r="K86">
         <v>1.264041</v>
       </c>
-      <c r="L85">
+      <c r="L86">
         <v>1.257425</v>
       </c>
-      <c r="M85">
+      <c r="M86">
         <v>1.146744</v>
       </c>
-      <c r="N85">
+      <c r="N86">
         <v>0.90275620000000001</v>
       </c>
-      <c r="O85">
+      <c r="O86">
         <v>0.42791170000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86">
-        <v>2016</v>
-      </c>
-      <c r="D86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E86">
-        <v>4.3128999999999997E-3</v>
-      </c>
-      <c r="F86">
-        <v>5.4057999999999997E-3</v>
-      </c>
-      <c r="G86">
-        <v>2.8262000000000001E-3</v>
-      </c>
-      <c r="H86">
-        <v>4.6693000000000004E-3</v>
-      </c>
-      <c r="I86">
-        <v>5.0241000000000001E-3</v>
-      </c>
-      <c r="J86">
-        <v>3.6543000000000001E-3</v>
-      </c>
-      <c r="K86">
-        <v>1.253403</v>
-      </c>
-      <c r="L86">
-        <v>0.65529000000000004</v>
-      </c>
-      <c r="M86">
-        <v>1.0826359999999999</v>
-      </c>
-      <c r="N86">
-        <v>1.164901</v>
-      </c>
-      <c r="O86">
-        <v>0.84729529999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4977,704 +4979,704 @@
         <v>104</v>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
+        <v>4.3128999999999997E-3</v>
+      </c>
+      <c r="F87">
+        <v>5.4057999999999997E-3</v>
+      </c>
+      <c r="G87">
+        <v>2.8262000000000001E-3</v>
+      </c>
+      <c r="H87">
+        <v>4.6693000000000004E-3</v>
+      </c>
+      <c r="I87">
+        <v>5.0241000000000001E-3</v>
+      </c>
+      <c r="J87">
+        <v>3.6543000000000001E-3</v>
+      </c>
+      <c r="K87">
+        <v>1.253403</v>
+      </c>
+      <c r="L87">
+        <v>0.65529000000000004</v>
+      </c>
+      <c r="M87">
+        <v>1.0826359999999999</v>
+      </c>
+      <c r="N87">
+        <v>1.164901</v>
+      </c>
+      <c r="O87">
+        <v>0.84729529999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88">
+        <v>2019</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88">
         <v>0.3900132</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0.39125409999999999</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>0.38832090000000002</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>0.39018960000000003</v>
       </c>
-      <c r="I87">
+      <c r="I88">
         <v>0.3902466</v>
       </c>
-      <c r="J87">
+      <c r="J88">
         <v>0.39005770000000001</v>
       </c>
-      <c r="K87">
+      <c r="K88">
         <v>1.003182</v>
       </c>
-      <c r="L87">
+      <c r="L88">
         <v>0.99566089999999996</v>
       </c>
-      <c r="M87">
+      <c r="M88">
         <v>1.0004519999999999</v>
       </c>
-      <c r="N87">
+      <c r="N88">
         <v>1.0005980000000001</v>
       </c>
-      <c r="O87">
+      <c r="O88">
         <v>1.0001139999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
         <v>105</v>
-      </c>
-      <c r="C88">
-        <v>2018</v>
-      </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88">
-        <v>0.35892780000000002</v>
-      </c>
-      <c r="F88">
-        <v>0.49854419999999999</v>
-      </c>
-      <c r="G88">
-        <v>0.47360099999999999</v>
-      </c>
-      <c r="H88">
-        <v>0.40604190000000001</v>
-      </c>
-      <c r="I88">
-        <v>0.29139779999999998</v>
-      </c>
-      <c r="J88">
-        <v>0.12495050000000001</v>
-      </c>
-      <c r="K88">
-        <v>1.3889819999999999</v>
-      </c>
-      <c r="L88">
-        <v>1.319488</v>
-      </c>
-      <c r="M88">
-        <v>1.1312629999999999</v>
-      </c>
-      <c r="N88">
-        <v>0.81185640000000003</v>
-      </c>
-      <c r="O88">
-        <v>0.34812159999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>106</v>
       </c>
       <c r="C89">
         <v>2018</v>
       </c>
       <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89">
+        <v>0.35892780000000002</v>
+      </c>
+      <c r="F89">
+        <v>0.49854419999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.47360099999999999</v>
+      </c>
+      <c r="H89">
+        <v>0.40604190000000001</v>
+      </c>
+      <c r="I89">
+        <v>0.29139779999999998</v>
+      </c>
+      <c r="J89">
+        <v>0.12495050000000001</v>
+      </c>
+      <c r="K89">
+        <v>1.3889819999999999</v>
+      </c>
+      <c r="L89">
+        <v>1.319488</v>
+      </c>
+      <c r="M89">
+        <v>1.1312629999999999</v>
+      </c>
+      <c r="N89">
+        <v>0.81185640000000003</v>
+      </c>
+      <c r="O89">
+        <v>0.34812159999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <v>2018</v>
+      </c>
+      <c r="D90" t="s">
         <v>107</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>0.20418349999999999</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>0.25022030000000001</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>0.23704720000000001</v>
       </c>
-      <c r="H89">
+      <c r="H90">
         <v>0.21590190000000001</v>
       </c>
-      <c r="I89">
+      <c r="I90">
         <v>0.1888251</v>
       </c>
-      <c r="J89">
+      <c r="J90">
         <v>0.16582050000000001</v>
       </c>
-      <c r="K89">
+      <c r="K90">
         <v>1.225468</v>
       </c>
-      <c r="L89">
+      <c r="L90">
         <v>1.160952</v>
       </c>
-      <c r="M89">
+      <c r="M90">
         <v>1.0573920000000001</v>
       </c>
-      <c r="N89">
+      <c r="N90">
         <v>0.92478139999999998</v>
       </c>
-      <c r="O89">
+      <c r="O90">
         <v>0.81211500000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
         <v>108</v>
-      </c>
-      <c r="C90">
-        <v>2014</v>
-      </c>
-      <c r="D90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90">
-        <v>0.58551620000000004</v>
-      </c>
-      <c r="F90">
-        <v>0.79704209999999998</v>
-      </c>
-      <c r="G90">
-        <v>0.7229371</v>
-      </c>
-      <c r="H90">
-        <v>0.64242710000000003</v>
-      </c>
-      <c r="I90">
-        <v>0.51756290000000005</v>
-      </c>
-      <c r="J90">
-        <v>0.24775839999999999</v>
-      </c>
-      <c r="K90">
-        <v>1.361264</v>
-      </c>
-      <c r="L90">
-        <v>1.2346999999999999</v>
-      </c>
-      <c r="M90">
-        <v>1.0971979999999999</v>
-      </c>
-      <c r="N90">
-        <v>0.88394300000000003</v>
-      </c>
-      <c r="O90">
-        <v>0.4231452</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" t="s">
-        <v>110</v>
       </c>
       <c r="C91">
         <v>2014</v>
       </c>
       <c r="D91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91">
+        <v>0.58551620000000004</v>
+      </c>
+      <c r="F91">
+        <v>0.79704209999999998</v>
+      </c>
+      <c r="G91">
+        <v>0.7229371</v>
+      </c>
+      <c r="H91">
+        <v>0.64242710000000003</v>
+      </c>
+      <c r="I91">
+        <v>0.51756290000000005</v>
+      </c>
+      <c r="J91">
+        <v>0.24775839999999999</v>
+      </c>
+      <c r="K91">
+        <v>1.361264</v>
+      </c>
+      <c r="L91">
+        <v>1.2346999999999999</v>
+      </c>
+      <c r="M91">
+        <v>1.0971979999999999</v>
+      </c>
+      <c r="N91">
+        <v>0.88394300000000003</v>
+      </c>
+      <c r="O91">
+        <v>0.4231452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>2014</v>
+      </c>
+      <c r="D92" t="s">
         <v>111</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>0.37750260000000002</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>0.52700630000000004</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>0.45940340000000002</v>
       </c>
-      <c r="H91">
+      <c r="H92">
         <v>0.38567489999999999</v>
       </c>
-      <c r="I91">
+      <c r="I92">
         <v>0.29212199999999999</v>
       </c>
-      <c r="J91">
+      <c r="J92">
         <v>0.22320870000000001</v>
       </c>
-      <c r="K91">
+      <c r="K92">
         <v>1.396034</v>
       </c>
-      <c r="L91">
+      <c r="L92">
         <v>1.2169540000000001</v>
       </c>
-      <c r="M91">
+      <c r="M92">
         <v>1.0216479999999999</v>
       </c>
-      <c r="N91">
+      <c r="N92">
         <v>0.77382779999999995</v>
       </c>
-      <c r="O91">
+      <c r="O92">
         <v>0.59127719999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>26</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>112</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>2017</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>94</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>4.5859999999999998E-3</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>1.51875E-2</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>4.6514E-3</v>
       </c>
-      <c r="H92">
+      <c r="H93">
         <v>1.7397999999999999E-3</v>
       </c>
-      <c r="I92">
+      <c r="I93">
         <v>8.6200000000000003E-4</v>
       </c>
-      <c r="J92">
+      <c r="J93">
         <v>4.8210000000000001E-4</v>
       </c>
-      <c r="K92">
+      <c r="K93">
         <v>3.3117100000000002</v>
       </c>
-      <c r="L92">
+      <c r="L93">
         <v>1.0142610000000001</v>
       </c>
-      <c r="M92">
+      <c r="M93">
         <v>0.37937199999999999</v>
       </c>
-      <c r="N92">
+      <c r="N93">
         <v>0.1879634</v>
       </c>
-      <c r="O92">
+      <c r="O93">
         <v>0.1051243</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
         <v>113</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>2016</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>114</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>0.43321569999999998</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>0.59736290000000003</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>0.54112519999999997</v>
       </c>
-      <c r="H93">
+      <c r="H94">
         <v>0.47799190000000003</v>
       </c>
-      <c r="I93">
+      <c r="I94">
         <v>0.38297910000000002</v>
       </c>
-      <c r="J93">
+      <c r="J94">
         <v>0.16648579999999999</v>
       </c>
-      <c r="K93">
+      <c r="K94">
         <v>1.3789039999999999</v>
       </c>
-      <c r="L93">
+      <c r="L94">
         <v>1.2490889999999999</v>
       </c>
-      <c r="M93">
+      <c r="M94">
         <v>1.1033580000000001</v>
       </c>
-      <c r="N93">
+      <c r="N94">
         <v>0.88403790000000004</v>
       </c>
-      <c r="O93">
+      <c r="O94">
         <v>0.38430229999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
         <v>115</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>2015</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>116</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>0.26045770000000001</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>0.40979199999999999</v>
       </c>
-      <c r="G94">
+      <c r="G95">
         <v>0.34338259999999998</v>
       </c>
-      <c r="H94">
+      <c r="H95">
         <v>0.25865339999999998</v>
       </c>
-      <c r="I94">
+      <c r="I95">
         <v>0.19197549999999999</v>
       </c>
-      <c r="J94">
+      <c r="J95">
         <v>9.8589700000000002E-2</v>
       </c>
-      <c r="K94">
+      <c r="K95">
         <v>1.573353</v>
       </c>
-      <c r="L94">
+      <c r="L95">
         <v>1.318381</v>
       </c>
-      <c r="M94">
+      <c r="M95">
         <v>0.99307259999999997</v>
       </c>
-      <c r="N94">
+      <c r="N95">
         <v>0.7370698</v>
       </c>
-      <c r="O94">
+      <c r="O95">
         <v>0.37852479999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
         <v>117</v>
-      </c>
-      <c r="C95">
-        <v>2018</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95">
-        <v>0.67902929999999995</v>
-      </c>
-      <c r="F95">
-        <v>0.77818639999999994</v>
-      </c>
-      <c r="G95">
-        <v>0.76361429999999997</v>
-      </c>
-      <c r="H95">
-        <v>0.74304619999999999</v>
-      </c>
-      <c r="I95">
-        <v>0.6805677</v>
-      </c>
-      <c r="J95">
-        <v>0.42917670000000002</v>
-      </c>
-      <c r="K95">
-        <v>1.146028</v>
-      </c>
-      <c r="L95">
-        <v>1.124568</v>
-      </c>
-      <c r="M95">
-        <v>1.0942769999999999</v>
-      </c>
-      <c r="N95">
-        <v>1.0022660000000001</v>
-      </c>
-      <c r="O95">
-        <v>0.63204439999999995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" t="s">
-        <v>118</v>
       </c>
       <c r="C96">
         <v>2018</v>
       </c>
       <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96">
+        <v>0.67902929999999995</v>
+      </c>
+      <c r="F96">
+        <v>0.77818639999999994</v>
+      </c>
+      <c r="G96">
+        <v>0.76361429999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.74304619999999999</v>
+      </c>
+      <c r="I96">
+        <v>0.6805677</v>
+      </c>
+      <c r="J96">
+        <v>0.42917670000000002</v>
+      </c>
+      <c r="K96">
+        <v>1.146028</v>
+      </c>
+      <c r="L96">
+        <v>1.124568</v>
+      </c>
+      <c r="M96">
+        <v>1.0942769999999999</v>
+      </c>
+      <c r="N96">
+        <v>1.0022660000000001</v>
+      </c>
+      <c r="O96">
+        <v>0.63204439999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97">
+        <v>2018</v>
+      </c>
+      <c r="D97" t="s">
         <v>119</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>0.23904980000000001</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>0.45319609999999999</v>
       </c>
-      <c r="G96">
+      <c r="G97">
         <v>0.30641069999999998</v>
       </c>
-      <c r="H96">
+      <c r="H97">
         <v>0.2033874</v>
       </c>
-      <c r="I96">
+      <c r="I97">
         <v>0.142544</v>
       </c>
-      <c r="J96">
+      <c r="J97">
         <v>8.9602200000000007E-2</v>
       </c>
-      <c r="K96">
+      <c r="K97">
         <v>1.895823</v>
       </c>
-      <c r="L96">
+      <c r="L97">
         <v>1.2817860000000001</v>
       </c>
-      <c r="M96">
+      <c r="M97">
         <v>0.85081600000000002</v>
       </c>
-      <c r="N96">
+      <c r="N97">
         <v>0.5962942</v>
       </c>
-      <c r="O96">
+      <c r="O97">
         <v>0.37482650000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
         <v>120</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>2014</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>121</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>0.2336666</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>0.38764900000000002</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>0.29984319999999998</v>
       </c>
-      <c r="H97">
+      <c r="H98">
         <v>0.222355</v>
       </c>
-      <c r="I97">
+      <c r="I98">
         <v>0.16793930000000001</v>
       </c>
-      <c r="J97">
+      <c r="J98">
         <v>9.3472799999999995E-2</v>
       </c>
-      <c r="K97">
+      <c r="K98">
         <v>1.6589830000000001</v>
       </c>
-      <c r="L97">
+      <c r="L98">
         <v>1.283209</v>
       </c>
-      <c r="M97">
+      <c r="M98">
         <v>0.95159079999999996</v>
       </c>
-      <c r="N97">
+      <c r="N98">
         <v>0.7187133</v>
       </c>
-      <c r="O97">
+      <c r="O98">
         <v>0.4000264</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>26</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>122</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>2010</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>123</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>0.43647370000000002</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>0.60714920000000006</v>
       </c>
-      <c r="G98">
+      <c r="G99">
         <v>0.52459829999999996</v>
       </c>
-      <c r="H98">
+      <c r="H99">
         <v>0.45774100000000001</v>
       </c>
-      <c r="I98">
+      <c r="I99">
         <v>0.3745329</v>
       </c>
-      <c r="J98">
+      <c r="J99">
         <v>0.21977559999999999</v>
       </c>
-      <c r="K98">
+      <c r="K99">
         <v>1.391033</v>
       </c>
-      <c r="L98">
+      <c r="L99">
         <v>1.2019010000000001</v>
       </c>
-      <c r="M98">
+      <c r="M99">
         <v>1.0487249999999999</v>
       </c>
-      <c r="N98">
+      <c r="N99">
         <v>0.85808810000000002</v>
       </c>
-      <c r="O98">
+      <c r="O99">
         <v>0.50352540000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
         <v>124</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>2018</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>28</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>0.40879510000000002</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>0.62309020000000004</v>
       </c>
-      <c r="G99">
+      <c r="G100">
         <v>0.48746060000000002</v>
       </c>
-      <c r="H99">
+      <c r="H100">
         <v>0.38801570000000002</v>
       </c>
-      <c r="I99">
+      <c r="I100">
         <v>0.30795479999999997</v>
       </c>
-      <c r="J99">
+      <c r="J100">
         <v>0.2373932</v>
       </c>
-      <c r="K99">
+      <c r="K100">
         <v>1.5242119999999999</v>
       </c>
-      <c r="L99">
+      <c r="L100">
         <v>1.1924330000000001</v>
       </c>
-      <c r="M99">
+      <c r="M100">
         <v>0.94916920000000005</v>
       </c>
-      <c r="N99">
+      <c r="N100">
         <v>0.75332310000000002</v>
       </c>
-      <c r="O99">
+      <c r="O100">
         <v>0.58071439999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
         <v>125</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>2021</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>30</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>6.0170099999999997E-2</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>0.22232469999999999</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>4.7657199999999997E-2</v>
       </c>
-      <c r="H100">
+      <c r="H101">
         <v>1.8019500000000001E-2</v>
       </c>
-      <c r="I100">
+      <c r="I101">
         <v>7.5066000000000004E-3</v>
       </c>
-      <c r="J100">
+      <c r="J101">
         <v>5.0616999999999997E-3</v>
       </c>
-      <c r="K100">
+      <c r="K101">
         <v>3.6949369999999999</v>
       </c>
-      <c r="L100">
+      <c r="L101">
         <v>0.7920412</v>
       </c>
-      <c r="M100">
+      <c r="M101">
         <v>0.29947600000000002</v>
       </c>
-      <c r="N100">
+      <c r="N101">
         <v>0.1247563</v>
       </c>
-      <c r="O100">
+      <c r="O101">
         <v>8.4123199999999995E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101">
-        <v>2018</v>
-      </c>
-      <c r="D101" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101">
-        <v>0.27021650000000003</v>
-      </c>
-      <c r="F101">
-        <v>0.52889010000000003</v>
-      </c>
-      <c r="G101">
-        <v>0.3525568</v>
-      </c>
-      <c r="H101">
-        <v>0.2238397</v>
-      </c>
-      <c r="I101">
-        <v>0.15781010000000001</v>
-      </c>
-      <c r="J101">
-        <v>8.6938299999999996E-2</v>
-      </c>
-      <c r="K101">
-        <v>1.9572830000000001</v>
-      </c>
-      <c r="L101">
-        <v>1.3047200000000001</v>
-      </c>
-      <c r="M101">
-        <v>0.82837170000000004</v>
-      </c>
-      <c r="N101">
-        <v>0.58401360000000002</v>
-      </c>
-      <c r="O101">
-        <v>0.32173570000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5682,46 +5684,46 @@
         <v>126</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
       </c>
       <c r="E102">
-        <v>0.2595498</v>
+        <v>0.27021650000000003</v>
       </c>
       <c r="F102">
-        <v>0.51942140000000003</v>
+        <v>0.52889010000000003</v>
       </c>
       <c r="G102">
-        <v>0.32843739999999999</v>
+        <v>0.3525568</v>
       </c>
       <c r="H102">
-        <v>0.2178377</v>
+        <v>0.2238397</v>
       </c>
       <c r="I102">
-        <v>0.1466836</v>
+        <v>0.15781010000000001</v>
       </c>
       <c r="J102">
-        <v>8.4059900000000007E-2</v>
+        <v>8.6938299999999996E-2</v>
       </c>
       <c r="K102">
-        <v>2.0012400000000001</v>
+        <v>1.9572830000000001</v>
       </c>
       <c r="L102">
-        <v>1.265412</v>
+        <v>1.3047200000000001</v>
       </c>
       <c r="M102">
-        <v>0.8392906</v>
+        <v>0.82837170000000004</v>
       </c>
       <c r="N102">
-        <v>0.56514629999999999</v>
+        <v>0.58401360000000002</v>
       </c>
       <c r="O102">
-        <v>0.32386809999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.32173570000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5729,46 +5731,46 @@
         <v>126</v>
       </c>
       <c r="C103">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D103" t="s">
         <v>55</v>
       </c>
       <c r="E103">
-        <v>0.25514550000000003</v>
+        <v>0.2595498</v>
       </c>
       <c r="F103">
-        <v>0.40706989999999998</v>
+        <v>0.51942140000000003</v>
       </c>
       <c r="G103">
-        <v>0.32938719999999999</v>
+        <v>0.32843739999999999</v>
       </c>
       <c r="H103">
-        <v>0.25423990000000002</v>
+        <v>0.2178377</v>
       </c>
       <c r="I103">
-        <v>0.17943190000000001</v>
+        <v>0.1466836</v>
       </c>
       <c r="J103">
-        <v>0.1050519</v>
+        <v>8.4059900000000007E-2</v>
       </c>
       <c r="K103">
-        <v>1.595442</v>
+        <v>2.0012400000000001</v>
       </c>
       <c r="L103">
-        <v>1.290978</v>
+        <v>1.265412</v>
       </c>
       <c r="M103">
-        <v>0.99645070000000002</v>
+        <v>0.8392906</v>
       </c>
       <c r="N103">
-        <v>0.70325329999999997</v>
+        <v>0.56514629999999999</v>
       </c>
       <c r="O103">
-        <v>0.41173330000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.32386809999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5776,140 +5778,140 @@
         <v>126</v>
       </c>
       <c r="C104">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D104" t="s">
         <v>55</v>
       </c>
       <c r="E104">
+        <v>0.25514550000000003</v>
+      </c>
+      <c r="F104">
+        <v>0.40706989999999998</v>
+      </c>
+      <c r="G104">
+        <v>0.32938719999999999</v>
+      </c>
+      <c r="H104">
+        <v>0.25423990000000002</v>
+      </c>
+      <c r="I104">
+        <v>0.17943190000000001</v>
+      </c>
+      <c r="J104">
+        <v>0.1050519</v>
+      </c>
+      <c r="K104">
+        <v>1.595442</v>
+      </c>
+      <c r="L104">
+        <v>1.290978</v>
+      </c>
+      <c r="M104">
+        <v>0.99645070000000002</v>
+      </c>
+      <c r="N104">
+        <v>0.70325329999999997</v>
+      </c>
+      <c r="O104">
+        <v>0.41173330000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105">
         <v>0.24931139999999999</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>0.43950060000000002</v>
       </c>
-      <c r="G104">
+      <c r="G105">
         <v>0.3104944</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <v>0.22812740000000001</v>
       </c>
-      <c r="I104">
+      <c r="I105">
         <v>0.16901620000000001</v>
       </c>
-      <c r="J104">
+      <c r="J105">
         <v>0.1005355</v>
       </c>
-      <c r="K104">
+      <c r="K105">
         <v>1.762858</v>
       </c>
-      <c r="L104">
+      <c r="L105">
         <v>1.2454080000000001</v>
       </c>
-      <c r="M104">
+      <c r="M105">
         <v>0.91502989999999995</v>
       </c>
-      <c r="N104">
+      <c r="N105">
         <v>0.67793210000000004</v>
       </c>
-      <c r="O104">
+      <c r="O105">
         <v>0.40325270000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
         <v>127</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>2009</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>28</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>0.58012459999999999</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>0.62200960000000005</v>
       </c>
-      <c r="G105">
+      <c r="G106">
         <v>0.64842080000000002</v>
       </c>
-      <c r="H105">
+      <c r="H106">
         <v>0.58786819999999995</v>
       </c>
-      <c r="I105">
+      <c r="I106">
         <v>0.52878340000000001</v>
       </c>
-      <c r="J105">
+      <c r="J106">
         <v>0.51352940000000002</v>
       </c>
-      <c r="K105">
+      <c r="K106">
         <v>1.0722</v>
       </c>
-      <c r="L105">
+      <c r="L106">
         <v>1.1177269999999999</v>
       </c>
-      <c r="M105">
+      <c r="M106">
         <v>1.0133479999999999</v>
       </c>
-      <c r="N105">
+      <c r="N106">
         <v>0.91149959999999997</v>
       </c>
-      <c r="O105">
+      <c r="O106">
         <v>0.88520540000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106">
-        <v>2018</v>
-      </c>
-      <c r="D106" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106">
-        <v>7.3493199999999995E-2</v>
-      </c>
-      <c r="F106">
-        <v>0.1913581</v>
-      </c>
-      <c r="G106">
-        <v>8.8833700000000002E-2</v>
-      </c>
-      <c r="H106">
-        <v>4.6582199999999997E-2</v>
-      </c>
-      <c r="I106">
-        <v>2.7162499999999999E-2</v>
-      </c>
-      <c r="J106">
-        <v>1.3491700000000001E-2</v>
-      </c>
-      <c r="K106">
-        <v>2.6037530000000002</v>
-      </c>
-      <c r="L106">
-        <v>1.208734</v>
-      </c>
-      <c r="M106">
-        <v>0.63383009999999995</v>
-      </c>
-      <c r="N106">
-        <v>0.36959199999999998</v>
-      </c>
-      <c r="O106">
-        <v>0.1835775</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5917,46 +5919,46 @@
         <v>128</v>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D107" t="s">
         <v>129</v>
       </c>
       <c r="E107">
-        <v>6.7149500000000001E-2</v>
+        <v>7.3493199999999995E-2</v>
       </c>
       <c r="F107">
-        <v>0.1641727</v>
+        <v>0.1913581</v>
       </c>
       <c r="G107">
-        <v>8.5330600000000006E-2</v>
+        <v>8.8833700000000002E-2</v>
       </c>
       <c r="H107">
-        <v>4.7134599999999999E-2</v>
+        <v>4.6582199999999997E-2</v>
       </c>
       <c r="I107">
-        <v>2.6450600000000001E-2</v>
+        <v>2.7162499999999999E-2</v>
       </c>
       <c r="J107">
-        <v>1.2481000000000001E-2</v>
+        <v>1.3491700000000001E-2</v>
       </c>
       <c r="K107">
-        <v>2.4448829999999999</v>
+        <v>2.6037530000000002</v>
       </c>
       <c r="L107">
-        <v>1.270756</v>
+        <v>1.208734</v>
       </c>
       <c r="M107">
-        <v>0.70193530000000004</v>
+        <v>0.63383009999999995</v>
       </c>
       <c r="N107">
-        <v>0.39390609999999998</v>
+        <v>0.36959199999999998</v>
       </c>
       <c r="O107">
-        <v>0.1858689</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.1835775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5964,46 +5966,46 @@
         <v>128</v>
       </c>
       <c r="C108">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D108" t="s">
         <v>129</v>
       </c>
       <c r="E108">
-        <v>5.9381700000000003E-2</v>
+        <v>6.7149500000000001E-2</v>
       </c>
       <c r="F108">
-        <v>0.13442200000000001</v>
+        <v>0.1641727</v>
       </c>
       <c r="G108">
-        <v>8.5929599999999995E-2</v>
+        <v>8.5330600000000006E-2</v>
       </c>
       <c r="H108">
-        <v>3.9559700000000003E-2</v>
+        <v>4.7134599999999999E-2</v>
       </c>
       <c r="I108">
-        <v>2.6041700000000001E-2</v>
+        <v>2.6450600000000001E-2</v>
       </c>
       <c r="J108">
-        <v>1.08258E-2</v>
+        <v>1.2481000000000001E-2</v>
       </c>
       <c r="K108">
-        <v>2.2636940000000001</v>
+        <v>2.4448829999999999</v>
       </c>
       <c r="L108">
-        <v>1.4470719999999999</v>
+        <v>1.270756</v>
       </c>
       <c r="M108">
-        <v>0.66619340000000005</v>
+        <v>0.70193530000000004</v>
       </c>
       <c r="N108">
-        <v>0.43854759999999998</v>
+        <v>0.39390609999999998</v>
       </c>
       <c r="O108">
-        <v>0.18230869999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.1858689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -6011,140 +6013,140 @@
         <v>128</v>
       </c>
       <c r="C109">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D109" t="s">
         <v>129</v>
       </c>
       <c r="E109">
+        <v>5.9381700000000003E-2</v>
+      </c>
+      <c r="F109">
+        <v>0.13442200000000001</v>
+      </c>
+      <c r="G109">
+        <v>8.5929599999999995E-2</v>
+      </c>
+      <c r="H109">
+        <v>3.9559700000000003E-2</v>
+      </c>
+      <c r="I109">
+        <v>2.6041700000000001E-2</v>
+      </c>
+      <c r="J109">
+        <v>1.08258E-2</v>
+      </c>
+      <c r="K109">
+        <v>2.2636940000000001</v>
+      </c>
+      <c r="L109">
+        <v>1.4470719999999999</v>
+      </c>
+      <c r="M109">
+        <v>0.66619340000000005</v>
+      </c>
+      <c r="N109">
+        <v>0.43854759999999998</v>
+      </c>
+      <c r="O109">
+        <v>0.18230869999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110">
         <v>5.01862E-2</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>0.11678189999999999</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>6.4651700000000006E-2</v>
       </c>
-      <c r="H109">
+      <c r="H110">
         <v>3.1358999999999998E-2</v>
       </c>
-      <c r="I109">
+      <c r="I110">
         <v>2.5095099999999999E-2</v>
       </c>
-      <c r="J109">
+      <c r="J110">
         <v>1.29099E-2</v>
       </c>
-      <c r="K109">
+      <c r="K110">
         <v>2.326972</v>
       </c>
-      <c r="L109">
+      <c r="L110">
         <v>1.2882370000000001</v>
       </c>
-      <c r="M109">
+      <c r="M110">
         <v>0.62485299999999999</v>
       </c>
-      <c r="N109">
+      <c r="N110">
         <v>0.50003989999999998</v>
       </c>
-      <c r="O109">
+      <c r="O110">
         <v>0.25724010000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
         <v>130</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>2016</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>131</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>0.30356759999999999</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>0.29116779999999998</v>
       </c>
-      <c r="G110">
+      <c r="G111">
         <v>0.2999308</v>
       </c>
-      <c r="H110">
+      <c r="H111">
         <v>0.30653249999999999</v>
       </c>
-      <c r="I110">
+      <c r="I111">
         <v>0.30859710000000001</v>
       </c>
-      <c r="J110">
+      <c r="J111">
         <v>0.31165359999999998</v>
       </c>
-      <c r="K110">
+      <c r="K111">
         <v>0.95915309999999998</v>
       </c>
-      <c r="L110">
+      <c r="L111">
         <v>0.98801989999999995</v>
       </c>
-      <c r="M110">
+      <c r="M111">
         <v>1.0097670000000001</v>
       </c>
-      <c r="N110">
+      <c r="N111">
         <v>1.0165679999999999</v>
       </c>
-      <c r="O110">
+      <c r="O111">
         <v>1.026637</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111">
-        <v>2010</v>
-      </c>
-      <c r="D111" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111">
-        <v>0.2917843</v>
-      </c>
-      <c r="F111">
-        <v>0.50782150000000004</v>
-      </c>
-      <c r="G111">
-        <v>0.37042930000000002</v>
-      </c>
-      <c r="H111">
-        <v>0.26343899999999998</v>
-      </c>
-      <c r="I111">
-        <v>0.20123959999999999</v>
-      </c>
-      <c r="J111">
-        <v>0.1166536</v>
-      </c>
-      <c r="K111">
-        <v>1.7403999999999999</v>
-      </c>
-      <c r="L111">
-        <v>1.269531</v>
-      </c>
-      <c r="M111">
-        <v>0.90285530000000003</v>
-      </c>
-      <c r="N111">
-        <v>0.68968620000000003</v>
-      </c>
-      <c r="O111">
-        <v>0.39979399999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -6152,46 +6154,46 @@
         <v>133</v>
       </c>
       <c r="C112">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D112" t="s">
         <v>94</v>
       </c>
       <c r="E112">
-        <v>0.28336339999999999</v>
+        <v>0.2917843</v>
       </c>
       <c r="F112">
-        <v>0.48611939999999998</v>
+        <v>0.50782150000000004</v>
       </c>
       <c r="G112">
-        <v>0.35406270000000001</v>
+        <v>0.37042930000000002</v>
       </c>
       <c r="H112">
-        <v>0.26646540000000002</v>
+        <v>0.26343899999999998</v>
       </c>
       <c r="I112">
-        <v>0.2016598</v>
+        <v>0.20123959999999999</v>
       </c>
       <c r="J112">
-        <v>0.1121516</v>
+        <v>0.1166536</v>
       </c>
       <c r="K112">
-        <v>1.715533</v>
+        <v>1.7403999999999999</v>
       </c>
       <c r="L112">
-        <v>1.249501</v>
+        <v>1.269531</v>
       </c>
       <c r="M112">
-        <v>0.94036629999999999</v>
+        <v>0.90285530000000003</v>
       </c>
       <c r="N112">
-        <v>0.71166490000000004</v>
+        <v>0.68968620000000003</v>
       </c>
       <c r="O112">
-        <v>0.39578720000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.39979399999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -6199,46 +6201,46 @@
         <v>133</v>
       </c>
       <c r="C113">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D113" t="s">
         <v>94</v>
       </c>
       <c r="E113">
-        <v>0.24152109999999999</v>
+        <v>0.28336339999999999</v>
       </c>
       <c r="F113">
-        <v>0.429317</v>
+        <v>0.48611939999999998</v>
       </c>
       <c r="G113">
-        <v>0.29681730000000001</v>
+        <v>0.35406270000000001</v>
       </c>
       <c r="H113">
-        <v>0.2097445</v>
+        <v>0.26646540000000002</v>
       </c>
       <c r="I113">
-        <v>0.16111829999999999</v>
+        <v>0.2016598</v>
       </c>
       <c r="J113">
-        <v>0.11219460000000001</v>
+        <v>0.1121516</v>
       </c>
       <c r="K113">
-        <v>1.777555</v>
+        <v>1.715533</v>
       </c>
       <c r="L113">
-        <v>1.22895</v>
+        <v>1.249501</v>
       </c>
       <c r="M113">
-        <v>0.86843130000000002</v>
+        <v>0.94036629999999999</v>
       </c>
       <c r="N113">
-        <v>0.66709819999999997</v>
+        <v>0.71166490000000004</v>
       </c>
       <c r="O113">
-        <v>0.46453329999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.39578720000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -6246,281 +6248,281 @@
         <v>133</v>
       </c>
       <c r="C114">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D114" t="s">
         <v>94</v>
       </c>
       <c r="E114">
+        <v>0.24152109999999999</v>
+      </c>
+      <c r="F114">
+        <v>0.429317</v>
+      </c>
+      <c r="G114">
+        <v>0.29681730000000001</v>
+      </c>
+      <c r="H114">
+        <v>0.2097445</v>
+      </c>
+      <c r="I114">
+        <v>0.16111829999999999</v>
+      </c>
+      <c r="J114">
+        <v>0.11219460000000001</v>
+      </c>
+      <c r="K114">
+        <v>1.777555</v>
+      </c>
+      <c r="L114">
+        <v>1.22895</v>
+      </c>
+      <c r="M114">
+        <v>0.86843130000000002</v>
+      </c>
+      <c r="N114">
+        <v>0.66709819999999997</v>
+      </c>
+      <c r="O114">
+        <v>0.46453329999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115">
+        <v>2018</v>
+      </c>
+      <c r="D115" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115">
         <v>0.214639</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <v>0.39136199999999999</v>
       </c>
-      <c r="G114">
+      <c r="G115">
         <v>0.24653739999999999</v>
       </c>
-      <c r="H114">
+      <c r="H115">
         <v>0.1896159</v>
       </c>
-      <c r="I114">
+      <c r="I115">
         <v>0.15587770000000001</v>
       </c>
-      <c r="J114">
+      <c r="J115">
         <v>9.2517000000000002E-2</v>
       </c>
-      <c r="K114">
+      <c r="K115">
         <v>1.82335</v>
       </c>
-      <c r="L114">
+      <c r="L115">
         <v>1.148614</v>
       </c>
-      <c r="M114">
+      <c r="M115">
         <v>0.88341780000000003</v>
       </c>
-      <c r="N114">
+      <c r="N115">
         <v>0.72623190000000004</v>
       </c>
-      <c r="O114">
+      <c r="O115">
         <v>0.43103540000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
         <v>134</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>2016</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>135</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>0.47270810000000002</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <v>0.59809970000000001</v>
       </c>
-      <c r="G115">
+      <c r="G116">
         <v>0.56159400000000004</v>
       </c>
-      <c r="H115">
+      <c r="H116">
         <v>0.52756400000000003</v>
       </c>
-      <c r="I115">
+      <c r="I116">
         <v>0.43054350000000002</v>
       </c>
-      <c r="J115">
+      <c r="J116">
         <v>0.24565400000000001</v>
       </c>
-      <c r="K115">
+      <c r="K116">
         <v>1.2652620000000001</v>
       </c>
-      <c r="L115">
+      <c r="L116">
         <v>1.188035</v>
       </c>
-      <c r="M115">
+      <c r="M116">
         <v>1.1160460000000001</v>
       </c>
-      <c r="N115">
+      <c r="N116">
         <v>0.91080209999999995</v>
       </c>
-      <c r="O115">
+      <c r="O116">
         <v>0.51967379999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>51</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>136</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>2014</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>137</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>0.87214139999999996</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>0.96901119999999996</v>
       </c>
-      <c r="G116">
+      <c r="G117">
         <v>0.92172690000000002</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <v>0.8999838</v>
       </c>
-      <c r="I116">
+      <c r="I117">
         <v>0.85592630000000003</v>
       </c>
-      <c r="J116">
+      <c r="J117">
         <v>0.71411460000000004</v>
       </c>
-      <c r="K116">
+      <c r="K117">
         <v>1.1110709999999999</v>
       </c>
-      <c r="L116">
+      <c r="L117">
         <v>1.0568550000000001</v>
       </c>
-      <c r="M116">
+      <c r="M117">
         <v>1.0319240000000001</v>
       </c>
-      <c r="N116">
+      <c r="N117">
         <v>0.98140760000000005</v>
       </c>
-      <c r="O116">
+      <c r="O117">
         <v>0.81880600000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
         <v>138</v>
-      </c>
-      <c r="C117">
-        <v>2018</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117">
-        <v>0.19887920000000001</v>
-      </c>
-      <c r="F117">
-        <v>0.40215669999999998</v>
-      </c>
-      <c r="G117">
-        <v>0.27947939999999999</v>
-      </c>
-      <c r="H117">
-        <v>0.18065690000000001</v>
-      </c>
-      <c r="I117">
-        <v>9.7419800000000001E-2</v>
-      </c>
-      <c r="J117">
-        <v>3.4555700000000002E-2</v>
-      </c>
-      <c r="K117">
-        <v>2.0221149999999999</v>
-      </c>
-      <c r="L117">
-        <v>1.4052720000000001</v>
-      </c>
-      <c r="M117">
-        <v>0.90837500000000004</v>
-      </c>
-      <c r="N117">
-        <v>0.4898441</v>
-      </c>
-      <c r="O117">
-        <v>0.1737522</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>139</v>
       </c>
       <c r="C118">
         <v>2018</v>
       </c>
       <c r="D118" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="E118">
-        <v>0.49598130000000001</v>
+        <v>0.19887920000000001</v>
       </c>
       <c r="F118">
-        <v>0.63679339999999995</v>
+        <v>0.40215669999999998</v>
       </c>
       <c r="G118">
-        <v>0.5726194</v>
+        <v>0.27947939999999999</v>
       </c>
       <c r="H118">
-        <v>0.51332460000000002</v>
+        <v>0.18065690000000001</v>
       </c>
       <c r="I118">
-        <v>0.43192510000000001</v>
+        <v>9.7419800000000001E-2</v>
       </c>
       <c r="J118">
-        <v>0.32532499999999998</v>
+        <v>3.4555700000000002E-2</v>
       </c>
       <c r="K118">
-        <v>1.283906</v>
+        <v>2.0221149999999999</v>
       </c>
       <c r="L118">
-        <v>1.1545179999999999</v>
+        <v>1.4052720000000001</v>
       </c>
       <c r="M118">
-        <v>1.0349680000000001</v>
+        <v>0.90837500000000004</v>
       </c>
       <c r="N118">
-        <v>0.87084950000000005</v>
+        <v>0.4898441</v>
       </c>
       <c r="O118">
-        <v>0.65592189999999995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.1737522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C119">
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E119">
-        <v>0.5227098</v>
+        <v>0.49598130000000001</v>
       </c>
       <c r="F119">
-        <v>0.63104459999999996</v>
+        <v>0.63679339999999995</v>
       </c>
       <c r="G119">
-        <v>0.56151340000000005</v>
+        <v>0.5726194</v>
       </c>
       <c r="H119">
-        <v>0.51918770000000003</v>
+        <v>0.51332460000000002</v>
       </c>
       <c r="I119">
-        <v>0.47597739999999999</v>
+        <v>0.43192510000000001</v>
       </c>
       <c r="J119">
-        <v>0.4257708</v>
+        <v>0.32532499999999998</v>
       </c>
       <c r="K119">
-        <v>1.2072560000000001</v>
+        <v>1.283906</v>
       </c>
       <c r="L119">
-        <v>1.074236</v>
+        <v>1.1545179999999999</v>
       </c>
       <c r="M119">
-        <v>0.99326190000000003</v>
+        <v>1.0349680000000001</v>
       </c>
       <c r="N119">
-        <v>0.91059590000000001</v>
+        <v>0.87084950000000005</v>
       </c>
       <c r="O119">
-        <v>0.81454530000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.65592189999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6528,46 +6530,46 @@
         <v>141</v>
       </c>
       <c r="C120">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D120" t="s">
         <v>142</v>
       </c>
       <c r="E120">
-        <v>0.52378550000000001</v>
+        <v>0.5227098</v>
       </c>
       <c r="F120">
-        <v>0.63416609999999995</v>
+        <v>0.63104459999999996</v>
       </c>
       <c r="G120">
-        <v>0.55683899999999997</v>
+        <v>0.56151340000000005</v>
       </c>
       <c r="H120">
-        <v>0.51358479999999995</v>
+        <v>0.51918770000000003</v>
       </c>
       <c r="I120">
-        <v>0.48314649999999998</v>
+        <v>0.47597739999999999</v>
       </c>
       <c r="J120">
-        <v>0.43102279999999998</v>
+        <v>0.4257708</v>
       </c>
       <c r="K120">
-        <v>1.210736</v>
+        <v>1.2072560000000001</v>
       </c>
       <c r="L120">
-        <v>1.063105</v>
+        <v>1.074236</v>
       </c>
       <c r="M120">
-        <v>0.98052510000000004</v>
+        <v>0.99326190000000003</v>
       </c>
       <c r="N120">
-        <v>0.92241289999999998</v>
+        <v>0.91059590000000001</v>
       </c>
       <c r="O120">
-        <v>0.82289950000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.81454530000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -6575,239 +6577,239 @@
         <v>141</v>
       </c>
       <c r="C121">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D121" t="s">
         <v>142</v>
       </c>
       <c r="E121">
+        <v>0.52378550000000001</v>
+      </c>
+      <c r="F121">
+        <v>0.63416609999999995</v>
+      </c>
+      <c r="G121">
+        <v>0.55683899999999997</v>
+      </c>
+      <c r="H121">
+        <v>0.51358479999999995</v>
+      </c>
+      <c r="I121">
+        <v>0.48314649999999998</v>
+      </c>
+      <c r="J121">
+        <v>0.43102279999999998</v>
+      </c>
+      <c r="K121">
+        <v>1.210736</v>
+      </c>
+      <c r="L121">
+        <v>1.063105</v>
+      </c>
+      <c r="M121">
+        <v>0.98052510000000004</v>
+      </c>
+      <c r="N121">
+        <v>0.92241289999999998</v>
+      </c>
+      <c r="O121">
+        <v>0.82289950000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122">
         <v>0.50539389999999995</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>0.60526069999999998</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>0.53507979999999999</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>0.49185459999999998</v>
       </c>
-      <c r="I121">
+      <c r="I122">
         <v>0.4670571</v>
       </c>
-      <c r="J121">
+      <c r="J122">
         <v>0.42764170000000001</v>
       </c>
-      <c r="K121">
+      <c r="K122">
         <v>1.1976020000000001</v>
       </c>
-      <c r="L121">
+      <c r="L122">
         <v>1.058738</v>
       </c>
-      <c r="M121">
+      <c r="M122">
         <v>0.97321040000000003</v>
       </c>
-      <c r="N121">
+      <c r="N122">
         <v>0.92414470000000004</v>
       </c>
-      <c r="O121">
+      <c r="O122">
         <v>0.8461552</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
         <v>143</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>2017</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>109</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <v>0.56162179999999995</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>0.57491449999999999</v>
       </c>
-      <c r="G122">
+      <c r="G123">
         <v>0.56928339999999999</v>
       </c>
-      <c r="H122">
+      <c r="H123">
         <v>0.56535340000000001</v>
       </c>
-      <c r="I122">
+      <c r="I123">
         <v>0.57306820000000003</v>
       </c>
-      <c r="J122">
+      <c r="J123">
         <v>0.536972</v>
       </c>
-      <c r="K122">
+      <c r="K123">
         <v>1.0236689999999999</v>
       </c>
-      <c r="L122">
+      <c r="L123">
         <v>1.0136419999999999</v>
       </c>
-      <c r="M122">
+      <c r="M123">
         <v>1.0066440000000001</v>
       </c>
-      <c r="N122">
+      <c r="N123">
         <v>1.020381</v>
       </c>
-      <c r="O122">
+      <c r="O123">
         <v>0.9561096</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
         <v>144</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>2016</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>28</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>9.1106800000000002E-2</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>0.18582009999999999</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>0.1081183</v>
       </c>
-      <c r="H123">
+      <c r="H124">
         <v>8.0367400000000005E-2</v>
       </c>
-      <c r="I123">
+      <c r="I124">
         <v>5.3877500000000002E-2</v>
       </c>
-      <c r="J123">
+      <c r="J124">
         <v>2.7192500000000001E-2</v>
       </c>
-      <c r="K123">
+      <c r="K124">
         <v>2.0395850000000002</v>
       </c>
-      <c r="L123">
+      <c r="L124">
         <v>1.18672</v>
       </c>
-      <c r="M123">
+      <c r="M124">
         <v>0.88212290000000004</v>
       </c>
-      <c r="N123">
+      <c r="N124">
         <v>0.59136639999999996</v>
       </c>
-      <c r="O123">
+      <c r="O124">
         <v>0.29846840000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>66</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>145</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>2013</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>94</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>0.16580529999999999</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>0.24273900000000001</v>
       </c>
-      <c r="G124">
+      <c r="G125">
         <v>0.1790815</v>
       </c>
-      <c r="H124">
+      <c r="H125">
         <v>0.16575110000000001</v>
       </c>
-      <c r="I124">
+      <c r="I125">
         <v>0.1347662</v>
       </c>
-      <c r="J124">
+      <c r="J125">
         <v>0.10625850000000001</v>
       </c>
-      <c r="K124">
+      <c r="K125">
         <v>1.464</v>
       </c>
-      <c r="L124">
+      <c r="L125">
         <v>1.080071</v>
       </c>
-      <c r="M124">
+      <c r="M125">
         <v>0.99967309999999998</v>
       </c>
-      <c r="N124">
+      <c r="N125">
         <v>0.81279800000000002</v>
       </c>
-      <c r="O124">
+      <c r="O125">
         <v>0.64086310000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
         <v>146</v>
-      </c>
-      <c r="C125">
-        <v>2018</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125">
-        <v>0.74981399999999998</v>
-      </c>
-      <c r="F125">
-        <v>0.85167619999999999</v>
-      </c>
-      <c r="G125">
-        <v>0.8213104</v>
-      </c>
-      <c r="H125">
-        <v>0.79666999999999999</v>
-      </c>
-      <c r="I125">
-        <v>0.72233610000000004</v>
-      </c>
-      <c r="J125">
-        <v>0.55695410000000001</v>
-      </c>
-      <c r="K125">
-        <v>1.13585</v>
-      </c>
-      <c r="L125">
-        <v>1.0953520000000001</v>
-      </c>
-      <c r="M125">
-        <v>1.0624899999999999</v>
-      </c>
-      <c r="N125">
-        <v>0.96335380000000004</v>
-      </c>
-      <c r="O125">
-        <v>0.7427897</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" t="s">
-        <v>147</v>
       </c>
       <c r="C126">
         <v>2018</v>
@@ -6816,336 +6818,336 @@
         <v>24</v>
       </c>
       <c r="E126">
-        <v>0.16022429999999999</v>
+        <v>0.74981399999999998</v>
       </c>
       <c r="F126">
-        <v>0.28727390000000003</v>
+        <v>0.85167619999999999</v>
       </c>
       <c r="G126">
-        <v>0.218913</v>
+        <v>0.8213104</v>
       </c>
       <c r="H126">
-        <v>0.16487309999999999</v>
+        <v>0.79666999999999999</v>
       </c>
       <c r="I126">
-        <v>9.8324599999999998E-2</v>
+        <v>0.72233610000000004</v>
       </c>
       <c r="J126">
-        <v>3.1616699999999998E-2</v>
+        <v>0.55695410000000001</v>
       </c>
       <c r="K126">
-        <v>1.792948</v>
+        <v>1.13585</v>
       </c>
       <c r="L126">
-        <v>1.3662909999999999</v>
+        <v>1.0953520000000001</v>
       </c>
       <c r="M126">
-        <v>1.0290140000000001</v>
+        <v>1.0624899999999999</v>
       </c>
       <c r="N126">
-        <v>0.6136684</v>
+        <v>0.96335380000000004</v>
       </c>
       <c r="O126">
-        <v>0.19732769999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.7427897</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C127">
         <v>2018</v>
       </c>
       <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <v>0.16022429999999999</v>
+      </c>
+      <c r="F127">
+        <v>0.28727390000000003</v>
+      </c>
+      <c r="G127">
+        <v>0.218913</v>
+      </c>
+      <c r="H127">
+        <v>0.16487309999999999</v>
+      </c>
+      <c r="I127">
+        <v>9.8324599999999998E-2</v>
+      </c>
+      <c r="J127">
+        <v>3.1616699999999998E-2</v>
+      </c>
+      <c r="K127">
+        <v>1.792948</v>
+      </c>
+      <c r="L127">
+        <v>1.3662909999999999</v>
+      </c>
+      <c r="M127">
+        <v>1.0290140000000001</v>
+      </c>
+      <c r="N127">
+        <v>0.6136684</v>
+      </c>
+      <c r="O127">
+        <v>0.19732769999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128">
+        <v>2018</v>
+      </c>
+      <c r="D128" t="s">
         <v>149</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>0.41267949999999998</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <v>0.60667199999999999</v>
       </c>
-      <c r="G127">
+      <c r="G128">
         <v>0.54433739999999997</v>
       </c>
-      <c r="H127">
+      <c r="H128">
         <v>0.44685799999999998</v>
       </c>
-      <c r="I127">
+      <c r="I128">
         <v>0.29319269999999997</v>
       </c>
-      <c r="J127">
+      <c r="J128">
         <v>0.17229520000000001</v>
       </c>
-      <c r="K127">
+      <c r="K128">
         <v>1.4700800000000001</v>
       </c>
-      <c r="L127">
+      <c r="L128">
         <v>1.319032</v>
       </c>
-      <c r="M127">
+      <c r="M128">
         <v>1.082821</v>
       </c>
-      <c r="N127">
+      <c r="N128">
         <v>0.71046109999999996</v>
       </c>
-      <c r="O127">
+      <c r="O128">
         <v>0.41750369999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
         <v>150</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>2015</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>151</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>0.54894829999999994</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>0.61400690000000002</v>
       </c>
-      <c r="G128">
+      <c r="G129">
         <v>0.56555800000000001</v>
       </c>
-      <c r="H128">
+      <c r="H129">
         <v>0.56580600000000003</v>
       </c>
-      <c r="I128">
+      <c r="I129">
         <v>0.51662759999999996</v>
       </c>
-      <c r="J128">
+      <c r="J129">
         <v>0.47149869999999999</v>
       </c>
-      <c r="K128">
+      <c r="K129">
         <v>1.1185149999999999</v>
       </c>
-      <c r="L128">
+      <c r="L129">
         <v>1.030257</v>
       </c>
-      <c r="M128">
+      <c r="M129">
         <v>1.0307090000000001</v>
       </c>
-      <c r="N128">
+      <c r="N129">
         <v>0.94112249999999997</v>
       </c>
-      <c r="O128">
+      <c r="O129">
         <v>0.85891280000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>20</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
         <v>152</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>2014</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>153</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>0.39396550000000002</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <v>0.55110700000000001</v>
       </c>
-      <c r="G129">
+      <c r="G130">
         <v>0.483209</v>
       </c>
-      <c r="H129">
+      <c r="H130">
         <v>0.37899909999999998</v>
       </c>
-      <c r="I129">
+      <c r="I130">
         <v>0.33355970000000001</v>
       </c>
-      <c r="J129">
+      <c r="J130">
         <v>0.22274949999999999</v>
       </c>
-      <c r="K129">
+      <c r="K130">
         <v>1.398871</v>
       </c>
-      <c r="L129">
+      <c r="L130">
         <v>1.226526</v>
       </c>
-      <c r="M129">
+      <c r="M130">
         <v>0.9620109</v>
       </c>
-      <c r="N129">
+      <c r="N130">
         <v>0.84667230000000004</v>
       </c>
-      <c r="O129">
+      <c r="O130">
         <v>0.56540360000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
         <v>154</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>2015</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
         <v>156</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>2018</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>94</v>
       </c>
-      <c r="E131">
+      <c r="E132">
         <v>0.28825299999999998</v>
       </c>
-      <c r="F131">
+      <c r="F132">
         <v>0.39314919999999998</v>
       </c>
-      <c r="G131">
+      <c r="G132">
         <v>0.34911340000000002</v>
       </c>
-      <c r="H131">
+      <c r="H132">
         <v>0.30553629999999998</v>
       </c>
-      <c r="I131">
+      <c r="I132">
         <v>0.2449809</v>
       </c>
-      <c r="J131">
+      <c r="J132">
         <v>0.14849270000000001</v>
       </c>
-      <c r="K131">
+      <c r="K132">
         <v>1.3639030000000001</v>
       </c>
-      <c r="L131">
+      <c r="L132">
         <v>1.2111350000000001</v>
       </c>
-      <c r="M131">
+      <c r="M132">
         <v>1.0599590000000001</v>
       </c>
-      <c r="N131">
+      <c r="N132">
         <v>0.84988149999999996</v>
       </c>
-      <c r="O131">
+      <c r="O132">
         <v>0.51514709999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
         <v>157</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>2016</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>158</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <v>0.54986259999999998</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>0.73950590000000005</v>
       </c>
-      <c r="G132">
+      <c r="G133">
         <v>0.66050880000000001</v>
       </c>
-      <c r="H132">
+      <c r="H133">
         <v>0.55558260000000004</v>
       </c>
-      <c r="I132">
+      <c r="I133">
         <v>0.4714642</v>
       </c>
-      <c r="J132">
+      <c r="J133">
         <v>0.3219495</v>
       </c>
-      <c r="K132">
+      <c r="K133">
         <v>1.344892</v>
       </c>
-      <c r="L132">
+      <c r="L133">
         <v>1.201225</v>
       </c>
-      <c r="M132">
+      <c r="M133">
         <v>1.0104029999999999</v>
       </c>
-      <c r="N132">
+      <c r="N133">
         <v>0.85742180000000001</v>
       </c>
-      <c r="O132">
+      <c r="O133">
         <v>0.58550899999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" t="s">
-        <v>159</v>
-      </c>
-      <c r="C133">
-        <v>2018</v>
-      </c>
-      <c r="D133" t="s">
-        <v>160</v>
-      </c>
-      <c r="E133">
-        <v>5.5627000000000003E-3</v>
-      </c>
-      <c r="F133">
-        <v>1.39408E-2</v>
-      </c>
-      <c r="G133">
-        <v>6.7422999999999997E-3</v>
-      </c>
-      <c r="H133">
-        <v>3.3459000000000002E-3</v>
-      </c>
-      <c r="I133">
-        <v>2.4145999999999998E-3</v>
-      </c>
-      <c r="J133">
-        <v>1.3684999999999999E-3</v>
-      </c>
-      <c r="K133">
-        <v>2.5061209999999998</v>
-      </c>
-      <c r="L133">
-        <v>1.2120550000000001</v>
-      </c>
-      <c r="M133">
-        <v>0.60148849999999998</v>
-      </c>
-      <c r="N133">
-        <v>0.43406980000000001</v>
-      </c>
-      <c r="O133">
-        <v>0.2460136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -7153,46 +7155,46 @@
         <v>159</v>
       </c>
       <c r="C134">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D134" t="s">
         <v>160</v>
       </c>
       <c r="E134">
-        <v>5.6365E-3</v>
+        <v>5.5627000000000003E-3</v>
       </c>
       <c r="F134">
-        <v>1.51436E-2</v>
+        <v>1.39408E-2</v>
       </c>
       <c r="G134">
-        <v>5.4573E-3</v>
+        <v>6.7422999999999997E-3</v>
       </c>
       <c r="H134">
-        <v>4.0822000000000002E-3</v>
+        <v>3.3459000000000002E-3</v>
       </c>
       <c r="I134">
-        <v>2.1638E-3</v>
+        <v>2.4145999999999998E-3</v>
       </c>
       <c r="J134">
-        <v>1.3341E-3</v>
+        <v>1.3684999999999999E-3</v>
       </c>
       <c r="K134">
-        <v>2.6867030000000001</v>
+        <v>2.5061209999999998</v>
       </c>
       <c r="L134">
-        <v>0.96820720000000005</v>
+        <v>1.2120550000000001</v>
       </c>
       <c r="M134">
-        <v>0.72424379999999999</v>
+        <v>0.60148849999999998</v>
       </c>
       <c r="N134">
-        <v>0.38389069999999997</v>
+        <v>0.43406980000000001</v>
       </c>
       <c r="O134">
-        <v>0.23668939999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.2460136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -7200,277 +7202,324 @@
         <v>159</v>
       </c>
       <c r="C135">
+        <v>2019</v>
+      </c>
+      <c r="D135" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135">
+        <v>5.6365E-3</v>
+      </c>
+      <c r="F135">
+        <v>1.51436E-2</v>
+      </c>
+      <c r="G135">
+        <v>5.4573E-3</v>
+      </c>
+      <c r="H135">
+        <v>4.0822000000000002E-3</v>
+      </c>
+      <c r="I135">
+        <v>2.1638E-3</v>
+      </c>
+      <c r="J135">
+        <v>1.3341E-3</v>
+      </c>
+      <c r="K135">
+        <v>2.6867030000000001</v>
+      </c>
+      <c r="L135">
+        <v>0.96820720000000005</v>
+      </c>
+      <c r="M135">
+        <v>0.72424379999999999</v>
+      </c>
+      <c r="N135">
+        <v>0.38389069999999997</v>
+      </c>
+      <c r="O135">
+        <v>0.23668939999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136">
         <v>2021</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>161</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <v>3.1873000000000001E-3</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>7.3820999999999999E-3</v>
       </c>
-      <c r="G135">
+      <c r="G136">
         <v>3.5206999999999999E-3</v>
       </c>
-      <c r="H135">
+      <c r="H136">
         <v>2.3498999999999998E-3</v>
       </c>
-      <c r="I135">
+      <c r="I136">
         <v>1.4589E-3</v>
       </c>
-      <c r="J135">
+      <c r="J136">
         <v>1.2214000000000001E-3</v>
       </c>
-      <c r="K135">
+      <c r="K136">
         <v>2.3160980000000002</v>
       </c>
-      <c r="L135">
+      <c r="L136">
         <v>1.104603</v>
       </c>
-      <c r="M135">
+      <c r="M136">
         <v>0.73726979999999998</v>
       </c>
-      <c r="N135">
+      <c r="N136">
         <v>0.45772289999999999</v>
       </c>
-      <c r="O135">
+      <c r="O136">
         <v>0.3832084</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>26</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>162</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>2016</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>163</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <v>4.0536099999999999E-2</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>0.1190198</v>
       </c>
-      <c r="G136">
+      <c r="G137">
         <v>4.4237800000000001E-2</v>
       </c>
-      <c r="H136">
+      <c r="H137">
         <v>2.37892E-2</v>
       </c>
-      <c r="I136">
+      <c r="I137">
         <v>1.18096E-2</v>
       </c>
-      <c r="J136">
+      <c r="J137">
         <v>3.9579000000000003E-3</v>
       </c>
-      <c r="K136">
+      <c r="K137">
         <v>2.9361429999999999</v>
       </c>
-      <c r="L136">
+      <c r="L137">
         <v>1.0913189999999999</v>
       </c>
-      <c r="M136">
+      <c r="M137">
         <v>0.58686450000000001</v>
       </c>
-      <c r="N136">
+      <c r="N137">
         <v>0.29133540000000002</v>
       </c>
-      <c r="O136">
+      <c r="O137">
         <v>9.7638900000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
         <v>164</v>
-      </c>
-      <c r="C137">
-        <v>2014</v>
-      </c>
-      <c r="D137" t="s">
-        <v>94</v>
-      </c>
-      <c r="E137">
-        <v>0.37140319999999999</v>
-      </c>
-      <c r="F137">
-        <v>0.5110903</v>
-      </c>
-      <c r="G137">
-        <v>0.42921169999999997</v>
-      </c>
-      <c r="H137">
-        <v>0.3890882</v>
-      </c>
-      <c r="I137">
-        <v>0.32116709999999998</v>
-      </c>
-      <c r="J137">
-        <v>0.2063672</v>
-      </c>
-      <c r="K137">
-        <v>1.3761060000000001</v>
-      </c>
-      <c r="L137">
-        <v>1.1556489999999999</v>
-      </c>
-      <c r="M137">
-        <v>1.047617</v>
-      </c>
-      <c r="N137">
-        <v>0.86473979999999995</v>
-      </c>
-      <c r="O137">
-        <v>0.55564190000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" t="s">
-        <v>165</v>
       </c>
       <c r="C138">
         <v>2014</v>
       </c>
       <c r="D138" t="s">
+        <v>94</v>
+      </c>
+      <c r="E138">
+        <v>0.37140319999999999</v>
+      </c>
+      <c r="F138">
+        <v>0.5110903</v>
+      </c>
+      <c r="G138">
+        <v>0.42921169999999997</v>
+      </c>
+      <c r="H138">
+        <v>0.3890882</v>
+      </c>
+      <c r="I138">
+        <v>0.32116709999999998</v>
+      </c>
+      <c r="J138">
+        <v>0.2063672</v>
+      </c>
+      <c r="K138">
+        <v>1.3761060000000001</v>
+      </c>
+      <c r="L138">
+        <v>1.1556489999999999</v>
+      </c>
+      <c r="M138">
+        <v>1.047617</v>
+      </c>
+      <c r="N138">
+        <v>0.86473979999999995</v>
+      </c>
+      <c r="O138">
+        <v>0.55564190000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139">
+        <v>2014</v>
+      </c>
+      <c r="D139" t="s">
         <v>166</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <v>0.16700419999999999</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <v>0.22341359999999999</v>
       </c>
-      <c r="G138">
+      <c r="G139">
         <v>0.16867209999999999</v>
       </c>
-      <c r="H138">
+      <c r="H139">
         <v>0.15563489999999999</v>
       </c>
-      <c r="I138">
+      <c r="I139">
         <v>0.14579130000000001</v>
       </c>
-      <c r="J138">
+      <c r="J139">
         <v>0.14122709999999999</v>
       </c>
-      <c r="K138">
+      <c r="K139">
         <v>1.337772</v>
       </c>
-      <c r="L138">
+      <c r="L139">
         <v>1.009987</v>
       </c>
-      <c r="M138">
+      <c r="M139">
         <v>0.93192209999999998</v>
       </c>
-      <c r="N138">
+      <c r="N139">
         <v>0.87297990000000003</v>
       </c>
-      <c r="O138">
+      <c r="O139">
         <v>0.84565000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
         <v>167</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>2015</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>168</v>
       </c>
-      <c r="E139">
+      <c r="E140">
         <v>0.28511029999999998</v>
       </c>
-      <c r="F139">
+      <c r="F140">
         <v>0.47128209999999998</v>
       </c>
-      <c r="G139">
+      <c r="G140">
         <v>0.40067069999999999</v>
       </c>
-      <c r="H139">
+      <c r="H140">
         <v>0.28772120000000001</v>
       </c>
-      <c r="I139">
+      <c r="I140">
         <v>0.1630501</v>
       </c>
-      <c r="J139">
+      <c r="J140">
         <v>0.1057564</v>
       </c>
-      <c r="K139">
+      <c r="K140">
         <v>1.652982</v>
       </c>
-      <c r="L139">
+      <c r="L140">
         <v>1.4053180000000001</v>
       </c>
-      <c r="M139">
+      <c r="M140">
         <v>1.009158</v>
       </c>
-      <c r="N139">
+      <c r="N140">
         <v>0.57188430000000001</v>
       </c>
-      <c r="O139">
+      <c r="O140">
         <v>0.37093150000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
         <v>169</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>2017</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>170</v>
       </c>
-      <c r="E140">
+      <c r="E141">
         <v>0.32885320000000001</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>0.4851839</v>
       </c>
-      <c r="G140">
+      <c r="G141">
         <v>0.39716639999999998</v>
       </c>
-      <c r="H140">
+      <c r="H141">
         <v>0.32202910000000001</v>
       </c>
-      <c r="I140">
+      <c r="I141">
         <v>0.24755750000000001</v>
       </c>
-      <c r="J140">
+      <c r="J141">
         <v>0.18798480000000001</v>
       </c>
-      <c r="K140">
+      <c r="K141">
         <v>1.4753810000000001</v>
       </c>
-      <c r="L140">
+      <c r="L141">
         <v>1.207732</v>
       </c>
-      <c r="M140">
+      <c r="M141">
         <v>0.97924889999999998</v>
       </c>
-      <c r="N140">
+      <c r="N141">
         <v>0.75279030000000002</v>
       </c>
-      <c r="O140">
+      <c r="O141">
         <v>0.57163750000000002</v>
       </c>
     </row>
